--- a/single-step-relaxation/time_strain_stress/1d5.xlsx
+++ b/single-step-relaxation/time_strain_stress/1d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="75" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -97,7 +97,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>0.11363636363636363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -152,7 +152,7 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="0">
-        <v>54.037062696942414</v>
+        <v>53.93795791672062</v>
       </c>
     </row>
     <row r="8">
@@ -163,7 +163,7 @@
         <v>1.5</v>
       </c>
       <c r="C8" s="0">
-        <v>49.927274988997404</v>
+        <v>50.181301470455189</v>
       </c>
     </row>
     <row r="9">
@@ -174,7 +174,7 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="0">
-        <v>46.630768002227732</v>
+        <v>47.01335423486838</v>
       </c>
     </row>
     <row r="10">
@@ -185,7 +185,7 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="0">
-        <v>44.406520755910279</v>
+        <v>44.419701952355474</v>
       </c>
     </row>
     <row r="11">
@@ -196,7 +196,7 @@
         <v>1.5</v>
       </c>
       <c r="C11" s="0">
-        <v>42.78817990405436</v>
+        <v>42.717787912470207</v>
       </c>
     </row>
     <row r="12">
@@ -207,7 +207,7 @@
         <v>1.5</v>
       </c>
       <c r="C12" s="0">
-        <v>41.444226649328606</v>
+        <v>41.415479205593805</v>
       </c>
     </row>
     <row r="13">
@@ -218,7 +218,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="0">
-        <v>40.309407447619584</v>
+        <v>40.295780742592939</v>
       </c>
     </row>
     <row r="14">
@@ -229,7 +229,7 @@
         <v>1.5</v>
       </c>
       <c r="C14" s="0">
-        <v>39.331253028291989</v>
+        <v>39.324704655825748</v>
       </c>
     </row>
     <row r="15">
@@ -240,7 +240,7 @@
         <v>1.5</v>
       </c>
       <c r="C15" s="0">
-        <v>38.476807834622981</v>
+        <v>38.479780259572721</v>
       </c>
     </row>
     <row r="16">
@@ -251,7 +251,7 @@
         <v>1.5</v>
       </c>
       <c r="C16" s="0">
-        <v>37.734408654644895</v>
+        <v>37.728133296416694</v>
       </c>
     </row>
     <row r="17">
@@ -262,7 +262,7 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="0">
-        <v>37.060708116241095</v>
+        <v>37.057825856432686</v>
       </c>
     </row>
     <row r="18">
@@ -273,7 +273,7 @@
         <v>1.5</v>
       </c>
       <c r="C18" s="0">
-        <v>36.450199966898907</v>
+        <v>36.448665027722249</v>
       </c>
     </row>
     <row r="19">
@@ -284,7 +284,7 @@
         <v>1.5</v>
       </c>
       <c r="C19" s="0">
-        <v>35.89161986469221</v>
+        <v>35.892337636315027</v>
       </c>
     </row>
     <row r="20">
@@ -295,7 +295,7 @@
         <v>1.5</v>
       </c>
       <c r="C20" s="0">
-        <v>35.378080054102625</v>
+        <v>35.380326695967298</v>
       </c>
     </row>
     <row r="21">
@@ -306,7 +306,7 @@
         <v>1.5</v>
       </c>
       <c r="C21" s="0">
-        <v>34.911739869497602</v>
+        <v>34.905512413176602</v>
       </c>
     </row>
     <row r="22">
@@ -317,7 +317,7 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="0">
-        <v>34.470951321874288</v>
+        <v>34.475757596870011</v>
       </c>
     </row>
     <row r="23">
@@ -328,7 +328,7 @@
         <v>1.5</v>
       </c>
       <c r="C23" s="0">
-        <v>34.072214287096998</v>
+        <v>34.073837798779095</v>
       </c>
     </row>
     <row r="24">
@@ -339,7 +339,7 @@
         <v>1.5</v>
       </c>
       <c r="C24" s="0">
-        <v>33.701548434040113</v>
+        <v>33.701193821669499</v>
       </c>
     </row>
     <row r="25">
@@ -350,7 +350,7 @@
         <v>1.5</v>
       </c>
       <c r="C25" s="0">
-        <v>33.356509517277814</v>
+        <v>33.354125921473809</v>
       </c>
     </row>
     <row r="26">
@@ -361,7 +361,7 @@
         <v>1.5</v>
       </c>
       <c r="C26" s="0">
-        <v>33.027494921342907</v>
+        <v>33.027340082132987</v>
       </c>
     </row>
     <row r="27">
@@ -372,7 +372,7 @@
         <v>1.5</v>
       </c>
       <c r="C27" s="0">
-        <v>32.715224092748343</v>
+        <v>32.713334077914055</v>
       </c>
     </row>
     <row r="28">
@@ -383,7 +383,7 @@
         <v>1.5</v>
       </c>
       <c r="C28" s="0">
-        <v>32.415047924094722</v>
+        <v>32.415927680915473</v>
       </c>
     </row>
     <row r="29">
@@ -394,7 +394,7 @@
         <v>1.5</v>
       </c>
       <c r="C29" s="0">
-        <v>32.13272907171131</v>
+        <v>32.136341801642104</v>
       </c>
     </row>
     <row r="30">
@@ -405,7 +405,7 @@
         <v>1.5</v>
       </c>
       <c r="C30" s="0">
-        <v>31.868255679786337</v>
+        <v>31.86743918957837</v>
       </c>
     </row>
     <row r="31">
@@ -416,7 +416,7 @@
         <v>1.5</v>
       </c>
       <c r="C31" s="0">
-        <v>31.612588612309629</v>
+        <v>31.609684838835854</v>
       </c>
     </row>
     <row r="32">
@@ -427,7 +427,7 @@
         <v>1.5</v>
       </c>
       <c r="C32" s="0">
-        <v>31.367466289450459</v>
+        <v>31.368578152061779</v>
       </c>
     </row>
     <row r="33">
@@ -438,7 +438,7 @@
         <v>1.5</v>
       </c>
       <c r="C33" s="0">
-        <v>31.134893292279955</v>
+        <v>31.136165778992542</v>
       </c>
     </row>
     <row r="34">
@@ -449,7 +449,7 @@
         <v>1.5</v>
       </c>
       <c r="C34" s="0">
-        <v>30.913004852899387</v>
+        <v>30.917225074843511</v>
       </c>
     </row>
     <row r="35">
@@ -460,7 +460,7 @@
         <v>1.5</v>
       </c>
       <c r="C35" s="0">
-        <v>30.710225448984762</v>
+        <v>30.707902478606066</v>
       </c>
     </row>
     <row r="36">
@@ -471,7 +471,7 @@
         <v>1.5</v>
       </c>
       <c r="C36" s="0">
-        <v>30.511523044385914</v>
+        <v>30.509884939961463</v>
       </c>
     </row>
     <row r="37">
@@ -482,7 +482,7 @@
         <v>1.5</v>
       </c>
       <c r="C37" s="0">
-        <v>30.314756960611732</v>
+        <v>30.316395134943964</v>
       </c>
     </row>
     <row r="38">
@@ -493,7 +493,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" s="0">
-        <v>30.128366991262865</v>
+        <v>30.124576015686308</v>
       </c>
     </row>
     <row r="39">
@@ -504,7 +504,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" s="0">
-        <v>29.940378333313134</v>
+        <v>29.942218346338976</v>
       </c>
     </row>
     <row r="40">
@@ -515,7 +515,7 @@
         <v>1.5</v>
       </c>
       <c r="C40" s="0">
-        <v>29.761928371174463</v>
+        <v>29.761857917601443</v>
       </c>
     </row>
     <row r="41">
@@ -526,7 +526,7 @@
         <v>1.5</v>
       </c>
       <c r="C41" s="0">
-        <v>29.591020079138932</v>
+        <v>29.590674058243582</v>
       </c>
     </row>
     <row r="42">
@@ -537,7 +537,7 @@
         <v>1.5</v>
       </c>
       <c r="C42" s="0">
-        <v>29.424972948820827</v>
+        <v>29.427209557550071</v>
       </c>
     </row>
     <row r="43">
@@ -548,7 +548,7 @@
         <v>1.5</v>
       </c>
       <c r="C43" s="0">
-        <v>29.26978237707112</v>
+        <v>29.270768253116511</v>
       </c>
     </row>
     <row r="44">
@@ -559,7 +559,7 @@
         <v>1.5</v>
       </c>
       <c r="C44" s="0">
-        <v>29.120616541034892</v>
+        <v>29.118538102279256</v>
       </c>
     </row>
     <row r="45">
@@ -570,7 +570,7 @@
         <v>1.5</v>
       </c>
       <c r="C45" s="0">
-        <v>28.972239101034056</v>
+        <v>28.971164438329833</v>
       </c>
     </row>
     <row r="46">
@@ -581,7 +581,7 @@
         <v>1.5</v>
       </c>
       <c r="C46" s="0">
-        <v>28.828581898549825</v>
+        <v>28.831798679139474</v>
       </c>
     </row>
     <row r="47">
@@ -592,7 +592,7 @@
         <v>1.5</v>
       </c>
       <c r="C47" s="0">
-        <v>28.69484449470615</v>
+        <v>28.693000012688259</v>
       </c>
     </row>
     <row r="48">
@@ -603,7 +603,7 @@
         <v>1.5</v>
       </c>
       <c r="C48" s="0">
-        <v>28.55941485245123</v>
+        <v>28.561322340028642</v>
       </c>
     </row>
     <row r="49">
@@ -614,7 +614,7 @@
         <v>1.5</v>
       </c>
       <c r="C49" s="0">
-        <v>28.434565152522659</v>
+        <v>28.432246591543219</v>
       </c>
     </row>
     <row r="50">
@@ -625,7 +625,7 @@
         <v>1.5</v>
       </c>
       <c r="C50" s="0">
-        <v>28.30669119300925</v>
+        <v>28.306053708376819</v>
       </c>
     </row>
     <row r="51">
@@ -636,7 +636,7 @@
         <v>1.5</v>
       </c>
       <c r="C51" s="0">
-        <v>28.17924356392469</v>
+        <v>28.183296605558269</v>
       </c>
     </row>
     <row r="52">
@@ -647,7 +647,7 @@
         <v>1.5</v>
       </c>
       <c r="C52" s="0">
-        <v>28.062910989877757</v>
+        <v>28.060098855167965</v>
       </c>
     </row>
     <row r="53">
@@ -658,7 +658,7 @@
         <v>1.5</v>
       </c>
       <c r="C53" s="0">
-        <v>27.94276151522098</v>
+        <v>27.940930490746773</v>
       </c>
     </row>
     <row r="54">
@@ -669,7 +669,7 @@
         <v>1.5</v>
       </c>
       <c r="C54" s="0">
-        <v>27.823557494349064</v>
+        <v>27.826589833465054</v>
       </c>
     </row>
     <row r="55">
@@ -680,7 +680,7 @@
         <v>1.5</v>
       </c>
       <c r="C55" s="0">
-        <v>27.715803956639849</v>
+        <v>27.718000484238978</v>
       </c>
     </row>
     <row r="56">
@@ -691,7 +691,7 @@
         <v>1.5</v>
       </c>
       <c r="C56" s="0">
-        <v>27.611302737241878</v>
+        <v>27.613634198573614</v>
       </c>
     </row>
     <row r="57">
@@ -702,7 +702,7 @@
         <v>1.5</v>
       </c>
       <c r="C57" s="0">
-        <v>27.513381316452257</v>
+        <v>27.510061801829753</v>
       </c>
     </row>
     <row r="58">
@@ -713,7 +713,7 @@
         <v>1.5</v>
       </c>
       <c r="C58" s="0">
-        <v>27.410970865094498</v>
+        <v>27.405041657293445</v>
       </c>
     </row>
     <row r="59">
@@ -724,7 +724,7 @@
         <v>1.5</v>
       </c>
       <c r="C59" s="0">
-        <v>27.297146954996379</v>
+        <v>27.299738729153741</v>
       </c>
     </row>
     <row r="60">
@@ -735,7 +735,7 @@
         <v>1.5</v>
       </c>
       <c r="C60" s="0">
-        <v>27.193215092916134</v>
+        <v>27.196820389289734</v>
       </c>
     </row>
     <row r="61">
@@ -746,7 +746,7 @@
         <v>1.5</v>
       </c>
       <c r="C61" s="0">
-        <v>27.099584244280276</v>
+        <v>27.100982820536878</v>
       </c>
     </row>
     <row r="62">
@@ -757,7 +757,7 @@
         <v>1.5</v>
       </c>
       <c r="C62" s="0">
-        <v>27.011606894682885</v>
+        <v>27.013314621138843</v>
       </c>
     </row>
     <row r="63">
@@ -768,7 +768,7 @@
         <v>1.5</v>
       </c>
       <c r="C63" s="0">
-        <v>26.931420422540999</v>
+        <v>26.924714096916482</v>
       </c>
     </row>
     <row r="64">
@@ -779,7 +779,7 @@
         <v>1.5</v>
       </c>
       <c r="C64" s="0">
-        <v>26.838594579116048</v>
+        <v>26.842283551490961</v>
       </c>
     </row>
     <row r="65">
@@ -790,7 +790,7 @@
         <v>1.5</v>
       </c>
       <c r="C65" s="0">
-        <v>26.752902054113871</v>
+        <v>26.753939658580407</v>
       </c>
     </row>
     <row r="66">
@@ -801,7 +801,7 @@
         <v>1.5</v>
       </c>
       <c r="C66" s="0">
-        <v>26.664805463988809</v>
+        <v>26.660679800534144</v>
       </c>
     </row>
     <row r="67">
@@ -812,7 +812,7 @@
         <v>1.5</v>
       </c>
       <c r="C67" s="0">
-        <v>26.571672236730034</v>
+        <v>26.567198873369588</v>
       </c>
     </row>
     <row r="68">
@@ -823,7 +823,7 @@
         <v>1.5</v>
       </c>
       <c r="C68" s="0">
-        <v>26.47744508246053</v>
+        <v>26.484782415446777</v>
       </c>
     </row>
     <row r="69">
@@ -834,7 +834,7 @@
         <v>1.5</v>
       </c>
       <c r="C69" s="0">
-        <v>26.399502660143323</v>
+        <v>26.404823566465954</v>
       </c>
     </row>
     <row r="70">
@@ -845,7 +845,7 @@
         <v>1.5</v>
       </c>
       <c r="C70" s="0">
-        <v>26.330675919127799</v>
+        <v>26.326921893298767</v>
       </c>
     </row>
     <row r="71">
@@ -856,7 +856,7 @@
         <v>1.5</v>
       </c>
       <c r="C71" s="0">
-        <v>26.262651413014549</v>
+        <v>26.256464598711148</v>
       </c>
     </row>
     <row r="72">
@@ -867,7 +867,7 @@
         <v>1.5</v>
       </c>
       <c r="C72" s="0">
-        <v>26.185253081426982</v>
+        <v>26.18815905366607</v>
       </c>
     </row>
     <row r="73">
@@ -878,7 +878,7 @@
         <v>1.5</v>
       </c>
       <c r="C73" s="0">
-        <v>26.109253419779645</v>
+        <v>26.112428937730677</v>
       </c>
     </row>
     <row r="74">
@@ -889,7 +889,7 @@
         <v>1.5</v>
       </c>
       <c r="C74" s="0">
-        <v>26.039825725138858</v>
+        <v>26.040133318603921</v>
       </c>
     </row>
     <row r="75">
@@ -900,7 +900,7 @@
         <v>1.5</v>
       </c>
       <c r="C75" s="0">
-        <v>25.973338280011234</v>
+        <v>25.969956384489567</v>
       </c>
     </row>
     <row r="76">
@@ -911,7 +911,7 @@
         <v>1.5</v>
       </c>
       <c r="C76" s="0">
-        <v>25.898297187143751</v>
+        <v>25.897210682538212</v>
       </c>
     </row>
     <row r="77">
@@ -922,7 +922,7 @@
         <v>1.5</v>
       </c>
       <c r="C77" s="0">
-        <v>25.821192252632503</v>
+        <v>25.823277335180155</v>
       </c>
     </row>
     <row r="78">
@@ -933,7 +933,7 @@
         <v>1.5</v>
       </c>
       <c r="C78" s="0">
-        <v>25.751029368783996</v>
+        <v>25.751475987894533</v>
       </c>
     </row>
     <row r="79">
@@ -944,7 +944,7 @@
         <v>1.5</v>
       </c>
       <c r="C79" s="0">
-        <v>25.681276295979565</v>
+        <v>25.682205680150016</v>
       </c>
     </row>
     <row r="80">
@@ -955,7 +955,7 @@
         <v>1.5</v>
       </c>
       <c r="C80" s="0">
-        <v>25.615623813953366</v>
+        <v>25.614110248556241</v>
       </c>
     </row>
     <row r="81">
@@ -966,7 +966,7 @@
         <v>1.5</v>
       </c>
       <c r="C81" s="0">
-        <v>25.552403927795886</v>
+        <v>25.548892056621053</v>
       </c>
     </row>
     <row r="82">
@@ -977,7 +977,7 @@
         <v>1.5</v>
       </c>
       <c r="C82" s="0">
-        <v>25.481171041153029</v>
+        <v>25.485349785606338</v>
       </c>
     </row>
     <row r="83">
@@ -988,7 +988,7 @@
         <v>1.5</v>
       </c>
       <c r="C83" s="0">
-        <v>25.421625744137511</v>
+        <v>25.421514161902429</v>
       </c>
     </row>
     <row r="84">
@@ -999,7 +999,7 @@
         <v>1.5</v>
       </c>
       <c r="C84" s="0">
-        <v>25.363862540982549</v>
+        <v>25.364659255068169</v>
       </c>
     </row>
     <row r="85">
@@ -1010,7 +1010,7 @@
         <v>1.5</v>
       </c>
       <c r="C85" s="0">
-        <v>25.308388067263945</v>
+        <v>25.309086974263483</v>
       </c>
     </row>
     <row r="86">
@@ -1021,7 +1021,7 @@
         <v>1.5</v>
       </c>
       <c r="C86" s="0">
-        <v>25.253330219971222</v>
+        <v>25.249859662539802</v>
       </c>
     </row>
     <row r="87">
@@ -1032,7 +1032,7 @@
         <v>1.5</v>
       </c>
       <c r="C87" s="0">
-        <v>25.191792160723754</v>
+        <v>25.193558562494236</v>
       </c>
     </row>
     <row r="88">
@@ -1043,7 +1043,7 @@
         <v>1.5</v>
       </c>
       <c r="C88" s="0">
-        <v>25.13358646850272</v>
+        <v>25.132526398935042</v>
       </c>
     </row>
     <row r="89">
@@ -1054,7 +1054,7 @@
         <v>1.5</v>
       </c>
       <c r="C89" s="0">
-        <v>25.071758612523798</v>
+        <v>25.071388370900184</v>
       </c>
     </row>
     <row r="90">
@@ -1065,7 +1065,7 @@
         <v>1.5</v>
       </c>
       <c r="C90" s="0">
-        <v>25.012013119642976</v>
+        <v>25.016648807877807</v>
       </c>
     </row>
     <row r="91">
@@ -1076,7 +1076,7 @@
         <v>1.5</v>
       </c>
       <c r="C91" s="0">
-        <v>24.962050955879278</v>
+        <v>24.959493233620275</v>
       </c>
     </row>
     <row r="92">
@@ -1087,7 +1087,7 @@
         <v>1.5</v>
       </c>
       <c r="C92" s="0">
-        <v>24.903514257727497</v>
+        <v>24.902668186146805</v>
       </c>
     </row>
     <row r="93">
@@ -1098,7 +1098,7 @@
         <v>1.5</v>
       </c>
       <c r="C93" s="0">
-        <v>24.847586530352682</v>
+        <v>24.844714896421461</v>
       </c>
     </row>
     <row r="94">
@@ -1109,7 +1109,7 @@
         <v>1.5</v>
       </c>
       <c r="C94" s="0">
-        <v>24.787183185562853</v>
+        <v>24.788759261157342</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>1.5</v>
       </c>
       <c r="C95" s="0">
-        <v>24.726966052785816</v>
+        <v>24.731315886937232</v>
       </c>
     </row>
     <row r="96">
@@ -1131,7 +1131,7 @@
         <v>1.5</v>
       </c>
       <c r="C96" s="0">
-        <v>24.678308245402448</v>
+        <v>24.676696286129573</v>
       </c>
     </row>
     <row r="97">
@@ -1142,7 +1142,7 @@
         <v>1.5</v>
       </c>
       <c r="C97" s="0">
-        <v>24.627001292220907</v>
+        <v>24.623843144779929</v>
       </c>
     </row>
     <row r="98">
@@ -1153,7 +1153,7 @@
         <v>1.5</v>
       </c>
       <c r="C98" s="0">
-        <v>24.570739812374853</v>
+        <v>24.575023470014504</v>
       </c>
     </row>
     <row r="99">
@@ -1164,7 +1164,7 @@
         <v>1.5</v>
       </c>
       <c r="C99" s="0">
-        <v>24.526005857737076</v>
+        <v>24.523658229082891</v>
       </c>
     </row>
     <row r="100">
@@ -1175,7 +1175,7 @@
         <v>1.5</v>
       </c>
       <c r="C100" s="0">
-        <v>24.474532412967619</v>
+        <v>24.476243313942245</v>
       </c>
     </row>
     <row r="101">
@@ -1186,7 +1186,7 @@
         <v>1.5</v>
       </c>
       <c r="C101" s="0">
-        <v>24.429580295600122</v>
+        <v>24.430729763589888</v>
       </c>
     </row>
     <row r="102">
@@ -1197,7 +1197,7 @@
         <v>1.5</v>
       </c>
       <c r="C102" s="0">
-        <v>24.3898717751158</v>
+        <v>24.389278502274767</v>
       </c>
     </row>
     <row r="103">
@@ -1208,7 +1208,7 @@
         <v>1.5</v>
       </c>
       <c r="C103" s="0">
-        <v>24.345691124002425</v>
+        <v>24.345741431265303</v>
       </c>
     </row>
     <row r="104">
@@ -1219,7 +1219,7 @@
         <v>1.5</v>
       </c>
       <c r="C104" s="0">
-        <v>24.30209533178698</v>
+        <v>24.299206881282025</v>
       </c>
     </row>
     <row r="105">
@@ -1230,7 +1230,7 @@
         <v>1.5</v>
       </c>
       <c r="C105" s="0">
-        <v>24.254745486410613</v>
+        <v>24.255854573704262</v>
       </c>
     </row>
     <row r="106">
@@ -1241,7 +1241,7 @@
         <v>1.5</v>
       </c>
       <c r="C106" s="0">
-        <v>24.205549329359513</v>
+        <v>24.206659070497626</v>
       </c>
     </row>
     <row r="107">
@@ -1252,7 +1252,7 @@
         <v>1.5</v>
       </c>
       <c r="C107" s="0">
-        <v>24.157987045149451</v>
+        <v>24.158797317287561</v>
       </c>
     </row>
     <row r="108">
@@ -1263,7 +1263,7 @@
         <v>1.5</v>
       </c>
       <c r="C108" s="0">
-        <v>24.113599648199859</v>
+        <v>24.111042707853905</v>
       </c>
     </row>
     <row r="109">
@@ -1274,7 +1274,7 @@
         <v>1.5</v>
       </c>
       <c r="C109" s="0">
-        <v>24.062728618532116</v>
+        <v>24.062111287044232</v>
       </c>
     </row>
     <row r="110">
@@ -1285,7 +1285,7 @@
         <v>1.5</v>
       </c>
       <c r="C110" s="0">
-        <v>24.013385082910006</v>
+        <v>24.015559363058049</v>
       </c>
     </row>
     <row r="111">
@@ -1296,7 +1296,7 @@
         <v>1.5</v>
       </c>
       <c r="C111" s="0">
-        <v>23.972324448195582</v>
+        <v>23.972941521973866</v>
       </c>
     </row>
     <row r="112">
@@ -1307,7 +1307,7 @@
         <v>1.5</v>
       </c>
       <c r="C112" s="0">
-        <v>23.931375035695126</v>
+        <v>23.932176475594169</v>
       </c>
     </row>
     <row r="113">
@@ -1318,7 +1318,7 @@
         <v>1.5</v>
       </c>
       <c r="C113" s="0">
-        <v>23.893249877323395</v>
+        <v>23.891207219563778</v>
       </c>
     </row>
     <row r="114">
@@ -1329,7 +1329,7 @@
         <v>1.5</v>
       </c>
       <c r="C114" s="0">
-        <v>23.852109865211677</v>
+        <v>23.85019277775465</v>
       </c>
     </row>
     <row r="115">
@@ -1340,7 +1340,7 @@
         <v>1.5</v>
       </c>
       <c r="C115" s="0">
-        <v>23.805509357159792</v>
+        <v>23.809856101274274</v>
       </c>
     </row>
     <row r="116">
@@ -1351,7 +1351,7 @@
         <v>1.5</v>
       </c>
       <c r="C116" s="0">
-        <v>23.767550924360094</v>
+        <v>23.766024455534314</v>
       </c>
     </row>
     <row r="117">
@@ -1362,7 +1362,7 @@
         <v>1.5</v>
       </c>
       <c r="C117" s="0">
-        <v>23.726810811714429</v>
+        <v>23.72659088260842</v>
       </c>
     </row>
     <row r="118">
@@ -1373,7 +1373,7 @@
         <v>1.5</v>
       </c>
       <c r="C118" s="0">
-        <v>23.68923541805529</v>
+        <v>23.690402148016734</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1.5</v>
       </c>
       <c r="C119" s="0">
-        <v>23.654329072841609</v>
+        <v>23.651747964977364</v>
       </c>
     </row>
     <row r="120">
@@ -1395,7 +1395,7 @@
         <v>1.5</v>
       </c>
       <c r="C120" s="0">
-        <v>23.613505254356461</v>
+        <v>23.616228825047614</v>
       </c>
     </row>
     <row r="121">
@@ -1406,7 +1406,7 @@
         <v>1.5</v>
       </c>
       <c r="C121" s="0">
-        <v>23.578884197058262</v>
+        <v>23.57853042185247</v>
       </c>
     </row>
     <row r="122">
@@ -1417,7 +1417,7 @@
         <v>1.5</v>
       </c>
       <c r="C122" s="0">
-        <v>23.54483832740226</v>
+        <v>23.54401994390275</v>
       </c>
     </row>
     <row r="123">
@@ -1428,7 +1428,7 @@
         <v>1.5</v>
       </c>
       <c r="C123" s="0">
-        <v>23.506148700290829</v>
+        <v>23.507257347162046</v>
       </c>
     </row>
     <row r="124">
@@ -1439,7 +1439,7 @@
         <v>1.5</v>
       </c>
       <c r="C124" s="0">
-        <v>23.470481682991288</v>
+        <v>23.467192887918298</v>
       </c>
     </row>
     <row r="125">
@@ -1450,7 +1450,7 @@
         <v>1.5</v>
       </c>
       <c r="C125" s="0">
-        <v>23.429370501632114</v>
+        <v>23.433653415626878</v>
       </c>
     </row>
     <row r="126">
@@ -1461,7 +1461,7 @@
         <v>1.5</v>
       </c>
       <c r="C126" s="0">
-        <v>23.395307026651505</v>
+        <v>23.392328334054437</v>
       </c>
     </row>
     <row r="127">
@@ -1472,7 +1472,7 @@
         <v>1.5</v>
       </c>
       <c r="C127" s="0">
-        <v>23.356721224316914</v>
+        <v>23.358344624519923</v>
       </c>
     </row>
     <row r="128">
@@ -1483,7 +1483,7 @@
         <v>1.5</v>
       </c>
       <c r="C128" s="0">
-        <v>23.3247748376854</v>
+        <v>23.328474923056007</v>
       </c>
     </row>
     <row r="129">
@@ -1494,7 +1494,7 @@
         <v>1.5</v>
       </c>
       <c r="C129" s="0">
-        <v>23.298056019496418</v>
+        <v>23.296089499912007</v>
       </c>
     </row>
     <row r="130">
@@ -1505,7 +1505,7 @@
         <v>1.5</v>
       </c>
       <c r="C130" s="0">
-        <v>23.264393481593174</v>
+        <v>23.262760722063302</v>
       </c>
     </row>
     <row r="131">
@@ -1516,7 +1516,7 @@
         <v>1.5</v>
       </c>
       <c r="C131" s="0">
-        <v>23.230451006510702</v>
+        <v>23.225302686498463</v>
       </c>
     </row>
     <row r="132">
@@ -1527,7 +1527,7 @@
         <v>1.5</v>
       </c>
       <c r="C132" s="0">
-        <v>23.186049850977732</v>
+        <v>23.192918147756984</v>
       </c>
     </row>
     <row r="133">
@@ -1538,7 +1538,7 @@
         <v>1.5</v>
       </c>
       <c r="C133" s="0">
-        <v>23.152480734272817</v>
+        <v>23.155534589135641</v>
       </c>
     </row>
     <row r="134">
@@ -1549,7 +1549,7 @@
         <v>1.5</v>
       </c>
       <c r="C134" s="0">
-        <v>23.123098577009451</v>
+        <v>23.119787367325102</v>
       </c>
     </row>
     <row r="135">
@@ -1560,7 +1560,7 @@
         <v>1.5</v>
       </c>
       <c r="C135" s="0">
-        <v>23.08936075458243</v>
+        <v>23.084622957090794</v>
       </c>
     </row>
     <row r="136">
@@ -1571,7 +1571,7 @@
         <v>1.5</v>
       </c>
       <c r="C136" s="0">
-        <v>23.05162762815867</v>
+        <v>23.053165766640173</v>
       </c>
     </row>
     <row r="137">
@@ -1582,7 +1582,7 @@
         <v>1.5</v>
       </c>
       <c r="C137" s="0">
-        <v>23.016503070566266</v>
+        <v>23.021115187930249</v>
       </c>
     </row>
     <row r="138">
@@ -1593,7 +1593,7 @@
         <v>1.5</v>
       </c>
       <c r="C138" s="0">
-        <v>22.985964423004535</v>
+        <v>22.985411546234861</v>
       </c>
     </row>
     <row r="139">
@@ -1604,7 +1604,7 @@
         <v>1.5</v>
       </c>
       <c r="C139" s="0">
-        <v>22.9567182105169</v>
+        <v>22.95327254358828</v>
       </c>
     </row>
     <row r="140">
@@ -1615,7 +1615,7 @@
         <v>1.5</v>
       </c>
       <c r="C140" s="0">
-        <v>22.922794865617188</v>
+        <v>22.91895504731999</v>
       </c>
     </row>
     <row r="141">
@@ -1626,7 +1626,7 @@
         <v>1.5</v>
       </c>
       <c r="C141" s="0">
-        <v>22.881298335646637</v>
+        <v>22.886708802052478</v>
       </c>
     </row>
     <row r="142">
@@ -1637,7 +1637,7 @@
         <v>1.5</v>
       </c>
       <c r="C142" s="0">
-        <v>22.852182422737641</v>
+        <v>22.855609787340207</v>
       </c>
     </row>
     <row r="143">
@@ -1648,7 +1648,7 @@
         <v>1.5</v>
       </c>
       <c r="C143" s="0">
-        <v>22.831955340089458</v>
+        <v>22.830946221483575</v>
       </c>
     </row>
     <row r="144">
@@ -1659,7 +1659,7 @@
         <v>1.5</v>
       </c>
       <c r="C144" s="0">
-        <v>22.807190268204174</v>
+        <v>22.803612567842837</v>
       </c>
     </row>
     <row r="145">
@@ -1670,7 +1670,7 @@
         <v>1.5</v>
       </c>
       <c r="C145" s="0">
-        <v>22.77724128017627</v>
+        <v>22.773431769339766</v>
       </c>
     </row>
     <row r="146">
@@ -1681,7 +1681,7 @@
         <v>1.5</v>
       </c>
       <c r="C146" s="0">
-        <v>22.74096834171041</v>
+        <v>22.744329601378688</v>
       </c>
     </row>
     <row r="147">
@@ -1692,7 +1692,7 @@
         <v>1.5</v>
       </c>
       <c r="C147" s="0">
-        <v>22.705886357080317</v>
+        <v>22.707222092538121</v>
       </c>
     </row>
     <row r="148">
@@ -1703,7 +1703,7 @@
         <v>1.5</v>
       </c>
       <c r="C148" s="0">
-        <v>22.673148519679373</v>
+        <v>22.670930345566884</v>
       </c>
     </row>
     <row r="149">
@@ -1714,7 +1714,7 @@
         <v>1.5</v>
       </c>
       <c r="C149" s="0">
-        <v>22.642015979478273</v>
+        <v>22.644614512218428</v>
       </c>
     </row>
     <row r="150">
@@ -1725,7 +1725,7 @@
         <v>1.5</v>
       </c>
       <c r="C150" s="0">
-        <v>22.617647421683785</v>
+        <v>22.621868666158797</v>
       </c>
     </row>
     <row r="151">
@@ -1736,7 +1736,7 @@
         <v>1.5</v>
       </c>
       <c r="C151" s="0">
-        <v>22.596930233672236</v>
+        <v>22.59978928340524</v>
       </c>
     </row>
     <row r="152">
@@ -1747,7 +1747,7 @@
         <v>1.5</v>
       </c>
       <c r="C152" s="0">
-        <v>22.581880836745185</v>
+        <v>22.572427444442763</v>
       </c>
     </row>
     <row r="153">
@@ -1758,7 +1758,7 @@
         <v>1.5</v>
       </c>
       <c r="C153" s="0">
-        <v>22.54978225109998</v>
+        <v>22.545289852097891</v>
       </c>
     </row>
     <row r="154">
@@ -1769,7 +1769,7 @@
         <v>1.5</v>
       </c>
       <c r="C154" s="0">
-        <v>22.506820202242039</v>
+        <v>22.51370563348916</v>
       </c>
     </row>
     <row r="155">
@@ -1780,7 +1780,7 @@
         <v>1.5</v>
       </c>
       <c r="C155" s="0">
-        <v>22.476692038362724</v>
+        <v>22.47871731108102</v>
       </c>
     </row>
     <row r="156">
@@ -1791,7 +1791,7 @@
         <v>1.5</v>
       </c>
       <c r="C156" s="0">
-        <v>22.450285829300867</v>
+        <v>22.447332430431874</v>
       </c>
     </row>
     <row r="157">
@@ -1802,7 +1802,7 @@
         <v>1.5</v>
       </c>
       <c r="C157" s="0">
-        <v>22.422582075543229</v>
+        <v>22.422848226506034</v>
       </c>
     </row>
     <row r="158">
@@ -1813,7 +1813,7 @@
         <v>1.5</v>
       </c>
       <c r="C158" s="0">
-        <v>22.399475177308339</v>
+        <v>22.401532994229797</v>
       </c>
     </row>
     <row r="159">
@@ -1824,7 +1824,7 @@
         <v>1.5</v>
       </c>
       <c r="C159" s="0">
-        <v>22.374878593798726</v>
+        <v>22.37599200607935</v>
       </c>
     </row>
     <row r="160">
@@ -1835,7 +1835,7 @@
         <v>1.5</v>
       </c>
       <c r="C160" s="0">
-        <v>22.351489317660832</v>
+        <v>22.348263255314684</v>
       </c>
     </row>
     <row r="161">
@@ -1846,7 +1846,7 @@
         <v>1.5</v>
       </c>
       <c r="C161" s="0">
-        <v>22.321094477375205</v>
+        <v>22.317063015581226</v>
       </c>
     </row>
     <row r="162">
@@ -1857,7 +1857,7 @@
         <v>1.5</v>
       </c>
       <c r="C162" s="0">
-        <v>22.285141481035524</v>
+        <v>22.286548189550821</v>
       </c>
     </row>
     <row r="163">
@@ -1868,7 +1868,7 @@
         <v>1.5</v>
       </c>
       <c r="C163" s="0">
-        <v>22.252137489335041</v>
+        <v>22.259941256704288</v>
       </c>
     </row>
     <row r="164">
@@ -1879,7 +1879,7 @@
         <v>1.5</v>
       </c>
       <c r="C164" s="0">
-        <v>22.235461346311379</v>
+        <v>22.233819133255835</v>
       </c>
     </row>
     <row r="165">
@@ -1890,7 +1890,7 @@
         <v>1.5</v>
       </c>
       <c r="C165" s="0">
-        <v>22.215987833565041</v>
+        <v>22.215809831542259</v>
       </c>
     </row>
     <row r="166">
@@ -1901,7 +1901,7 @@
         <v>1.5</v>
       </c>
       <c r="C166" s="0">
-        <v>22.199633532270028</v>
+        <v>22.195343461812513</v>
       </c>
     </row>
     <row r="167">
@@ -1912,7 +1912,7 @@
         <v>1.5</v>
       </c>
       <c r="C167" s="0">
-        <v>22.174421860751085</v>
+        <v>22.173481193676899</v>
       </c>
     </row>
     <row r="168">
@@ -1923,7 +1923,7 @@
         <v>1.5</v>
       </c>
       <c r="C168" s="0">
-        <v>22.145653914716803</v>
+        <v>22.14961277333067</v>
       </c>
     </row>
     <row r="169">
@@ -1934,7 +1934,7 @@
         <v>1.5</v>
       </c>
       <c r="C169" s="0">
-        <v>22.125302167651636</v>
+        <v>22.12853687377628</v>
       </c>
     </row>
     <row r="170">
@@ -1945,7 +1945,7 @@
         <v>1.5</v>
       </c>
       <c r="C170" s="0">
-        <v>22.107968764809709</v>
+        <v>22.100113026544573</v>
       </c>
     </row>
     <row r="171">
@@ -1956,7 +1956,7 @@
         <v>1.5</v>
       </c>
       <c r="C171" s="0">
-        <v>22.073202568691446</v>
+        <v>22.07359854954727</v>
       </c>
     </row>
     <row r="172">
@@ -1967,7 +1967,7 @@
         <v>1.5</v>
       </c>
       <c r="C172" s="0">
-        <v>22.04613421809967</v>
+        <v>22.046441535054768</v>
       </c>
     </row>
     <row r="173">
@@ -1978,7 +1978,7 @@
         <v>1.5</v>
       </c>
       <c r="C173" s="0">
-        <v>22.018145263312299</v>
+        <v>22.02298335063778</v>
       </c>
     </row>
     <row r="174">
@@ -1989,7 +1989,7 @@
         <v>1.5</v>
       </c>
       <c r="C174" s="0">
-        <v>21.997842274999648</v>
+        <v>21.99984557783608</v>
       </c>
     </row>
     <row r="175">
@@ -2000,7 +2000,7 @@
         <v>1.5</v>
       </c>
       <c r="C175" s="0">
-        <v>21.986726615987195</v>
+        <v>21.98282744174357</v>
       </c>
     </row>
     <row r="176">
@@ -2011,7 +2011,7 @@
         <v>1.5</v>
       </c>
       <c r="C176" s="0">
-        <v>21.966411024222722</v>
+        <v>21.966102992460314</v>
       </c>
     </row>
     <row r="177">
@@ -2022,7 +2022,7 @@
         <v>1.5</v>
       </c>
       <c r="C177" s="0">
-        <v>21.940982579089738</v>
+        <v>21.939341362108692</v>
       </c>
     </row>
     <row r="178">
@@ -2033,7 +2033,7 @@
         <v>1.5</v>
       </c>
       <c r="C178" s="0">
-        <v>21.910419175426743</v>
+        <v>21.912371529219786</v>
       </c>
     </row>
     <row r="179">
@@ -2044,7 +2044,7 @@
         <v>1.5</v>
       </c>
       <c r="C179" s="0">
-        <v>21.883335834533828</v>
+        <v>21.878711907980676</v>
       </c>
     </row>
     <row r="180">
@@ -2055,7 +2055,7 @@
         <v>1.5</v>
       </c>
       <c r="C180" s="0">
-        <v>21.847508643217708</v>
+        <v>21.854274333475331</v>
       </c>
     </row>
     <row r="181">
@@ -2066,7 +2066,7 @@
         <v>1.5</v>
       </c>
       <c r="C181" s="0">
-        <v>21.829096170564608</v>
+        <v>21.828977596521039</v>
       </c>
     </row>
     <row r="182">
@@ -2077,7 +2077,7 @@
         <v>1.5</v>
       </c>
       <c r="C182" s="0">
-        <v>21.807672459305454</v>
+        <v>21.805616242222968</v>
       </c>
     </row>
     <row r="183">
@@ -2088,7 +2088,7 @@
         <v>1.5</v>
       </c>
       <c r="C183" s="0">
-        <v>21.783830745022616</v>
+        <v>21.781554714960265</v>
       </c>
     </row>
     <row r="184">
@@ -2099,7 +2099,7 @@
         <v>1.5</v>
       </c>
       <c r="C184" s="0">
-        <v>21.760346529694583</v>
+        <v>21.76033311747004</v>
       </c>
     </row>
     <row r="185">
@@ -2110,7 +2110,7 @@
         <v>1.5</v>
       </c>
       <c r="C185" s="0">
-        <v>21.735815652676933</v>
+        <v>21.737480144268027</v>
       </c>
     </row>
     <row r="186">
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="C186" s="0">
-        <v>21.712745388010514</v>
+        <v>21.715654359115366</v>
       </c>
     </row>
     <row r="187">
@@ -2132,7 +2132,7 @@
         <v>1.5</v>
       </c>
       <c r="C187" s="0">
-        <v>21.700624748173272</v>
+        <v>21.699609288101836</v>
       </c>
     </row>
     <row r="188">
@@ -2143,7 +2143,7 @@
         <v>1.5</v>
       </c>
       <c r="C188" s="0">
-        <v>21.686995552743515</v>
+        <v>21.687133178425427</v>
       </c>
     </row>
     <row r="189">
@@ -2154,7 +2154,7 @@
         <v>1.5</v>
       </c>
       <c r="C189" s="0">
-        <v>21.668503088946956</v>
+        <v>21.667967187872048</v>
       </c>
     </row>
     <row r="190">
@@ -2165,7 +2165,7 @@
         <v>1.5</v>
       </c>
       <c r="C190" s="0">
-        <v>21.649442764433157</v>
+        <v>21.646004666846267</v>
       </c>
     </row>
     <row r="191">
@@ -2176,7 +2176,7 @@
         <v>1.5</v>
       </c>
       <c r="C191" s="0">
-        <v>21.622109958435594</v>
+        <v>21.621352398533919</v>
       </c>
     </row>
     <row r="192">
@@ -2187,7 +2187,7 @@
         <v>1.5</v>
       </c>
       <c r="C192" s="0">
-        <v>21.592683782842975</v>
+        <v>21.596918704475524</v>
       </c>
     </row>
     <row r="193">
@@ -2198,7 +2198,7 @@
         <v>1.5</v>
       </c>
       <c r="C193" s="0">
-        <v>21.573404555353971</v>
+        <v>21.575220445062349</v>
       </c>
     </row>
     <row r="194">
@@ -2209,7 +2209,7 @@
         <v>1.5</v>
       </c>
       <c r="C194" s="0">
-        <v>21.557726120104579</v>
+        <v>21.554432041579627</v>
       </c>
     </row>
     <row r="195">
@@ -2220,7 +2220,7 @@
         <v>1.5</v>
       </c>
       <c r="C195" s="0">
-        <v>21.536405233247706</v>
+        <v>21.533042632412187</v>
       </c>
     </row>
     <row r="196">
@@ -2231,7 +2231,7 @@
         <v>1.5</v>
       </c>
       <c r="C196" s="0">
-        <v>21.511414278212982</v>
+        <v>21.51318132083237</v>
       </c>
     </row>
     <row r="197">
@@ -2242,7 +2242,7 @@
         <v>1.5</v>
       </c>
       <c r="C197" s="0">
-        <v>21.48893306144695</v>
+        <v>21.489618718620363</v>
       </c>
     </row>
     <row r="198">
@@ -2253,7 +2253,7 @@
         <v>1.5</v>
       </c>
       <c r="C198" s="0">
-        <v>21.465387830137143</v>
+        <v>21.469088632964027</v>
       </c>
     </row>
     <row r="199">
@@ -2264,7 +2264,7 @@
         <v>1.5</v>
       </c>
       <c r="C199" s="0">
-        <v>21.453462439223216</v>
+        <v>21.450353921425616</v>
       </c>
     </row>
     <row r="200">
@@ -2275,7 +2275,7 @@
         <v>1.5</v>
       </c>
       <c r="C200" s="0">
-        <v>21.43331257080759</v>
+        <v>21.43101113106167</v>
       </c>
     </row>
     <row r="201">
@@ -2286,7 +2286,7 @@
         <v>1.5</v>
       </c>
       <c r="C201" s="0">
-        <v>21.407854843327424</v>
+        <v>21.409278803238724</v>
       </c>
     </row>
     <row r="202">
@@ -2297,7 +2297,7 @@
         <v>1.5</v>
       </c>
       <c r="C202" s="0">
-        <v>21.387771443304658</v>
+        <v>21.386855007646073</v>
       </c>
     </row>
     <row r="203">
@@ -2308,7 +2308,7 @@
         <v>1.5</v>
       </c>
       <c r="C203" s="0">
-        <v>21.365790839532131</v>
+        <v>21.36990276413875</v>
       </c>
     </row>
     <row r="204">
@@ -2319,7 +2319,7 @@
         <v>1.5</v>
       </c>
       <c r="C204" s="0">
-        <v>21.349216789644341</v>
+        <v>21.349061491395595</v>
       </c>
     </row>
     <row r="205">
@@ -2330,7 +2330,7 @@
         <v>1.5</v>
       </c>
       <c r="C205" s="0">
-        <v>21.334170665590019</v>
+        <v>21.326518188225013</v>
       </c>
     </row>
     <row r="206">
@@ -2341,7 +2341,7 @@
         <v>1.5</v>
       </c>
       <c r="C206" s="0">
-        <v>21.304597797269235</v>
+        <v>21.307664687650728</v>
       </c>
     </row>
     <row r="207">
@@ -2352,7 +2352,7 @@
         <v>1.5</v>
       </c>
       <c r="C207" s="0">
-        <v>21.28190200068838</v>
+        <v>21.28281627975062</v>
       </c>
     </row>
     <row r="208">
@@ -2363,7 +2363,7 @@
         <v>1.5</v>
       </c>
       <c r="C208" s="0">
-        <v>21.260768582122502</v>
+        <v>21.265065477158341</v>
       </c>
     </row>
     <row r="209">
@@ -2374,7 +2374,7 @@
         <v>1.5</v>
       </c>
       <c r="C209" s="0">
-        <v>21.253094077964835</v>
+        <v>21.252536327402822</v>
       </c>
     </row>
     <row r="210">
@@ -2385,7 +2385,7 @@
         <v>1.5</v>
       </c>
       <c r="C210" s="0">
-        <v>21.240645574872982</v>
+        <v>21.23832007945936</v>
       </c>
     </row>
     <row r="211">
@@ -2396,7 +2396,7 @@
         <v>1.5</v>
       </c>
       <c r="C211" s="0">
-        <v>21.221646380956216</v>
+        <v>21.218145464992279</v>
       </c>
     </row>
     <row r="212">
@@ -2407,7 +2407,7 @@
         <v>1.5</v>
       </c>
       <c r="C212" s="0">
-        <v>21.19822203070385</v>
+        <v>21.194789463172715</v>
       </c>
     </row>
     <row r="213">
@@ -2418,7 +2418,7 @@
         <v>1.5</v>
       </c>
       <c r="C213" s="0">
-        <v>21.168191078248761</v>
+        <v>21.173727198803419</v>
       </c>
     </row>
     <row r="214">
@@ -2429,7 +2429,7 @@
         <v>1.5</v>
       </c>
       <c r="C214" s="0">
-        <v>21.151333849735767</v>
+        <v>21.157683619014549</v>
       </c>
     </row>
     <row r="215">
@@ -2440,7 +2440,7 @@
         <v>1.5</v>
       </c>
       <c r="C215" s="0">
-        <v>21.148710902764897</v>
+        <v>21.144848155942569</v>
       </c>
     </row>
     <row r="216">
@@ -2451,7 +2451,7 @@
         <v>1.5</v>
       </c>
       <c r="C216" s="0">
-        <v>21.135271861954017</v>
+        <v>21.133014114169956</v>
       </c>
     </row>
     <row r="217">
@@ -2462,7 +2462,7 @@
         <v>1.5</v>
       </c>
       <c r="C217" s="0">
-        <v>21.118808726086648</v>
+        <v>21.112853955473394</v>
       </c>
     </row>
     <row r="218">
@@ -2473,7 +2473,7 @@
         <v>1.5</v>
       </c>
       <c r="C218" s="0">
-        <v>21.090383792062379</v>
+        <v>21.096906731093846</v>
       </c>
     </row>
     <row r="219">
@@ -2484,7 +2484,7 @@
         <v>1.5</v>
       </c>
       <c r="C219" s="0">
-        <v>21.072053212796124</v>
+        <v>21.074585417431173</v>
       </c>
     </row>
     <row r="220">
@@ -2495,7 +2495,7 @@
         <v>1.5</v>
       </c>
       <c r="C220" s="0">
-        <v>21.056450240859721</v>
+        <v>21.05449328327445</v>
       </c>
     </row>
     <row r="221">
@@ -2506,7 +2506,7 @@
         <v>1.5</v>
       </c>
       <c r="C221" s="0">
-        <v>21.041042046709311</v>
+        <v>21.03767100255174</v>
       </c>
     </row>
     <row r="222">
@@ -2517,7 +2517,7 @@
         <v>1.5</v>
       </c>
       <c r="C222" s="0">
-        <v>21.021858101728004</v>
+        <v>21.019478280524293</v>
       </c>
     </row>
     <row r="223">
@@ -2528,7 +2528,7 @@
         <v>1.5</v>
       </c>
       <c r="C223" s="0">
-        <v>20.997582040551247</v>
+        <v>21.004226358617842</v>
       </c>
     </row>
     <row r="224">
@@ -2539,7 +2539,7 @@
         <v>1.5</v>
       </c>
       <c r="C224" s="0">
-        <v>20.985609893218466</v>
+        <v>20.984004556370714</v>
       </c>
     </row>
     <row r="225">
@@ -2550,7 +2550,7 @@
         <v>1.5</v>
       </c>
       <c r="C225" s="0">
-        <v>20.968917162938808</v>
+        <v>20.969190950233109</v>
       </c>
     </row>
     <row r="226">
@@ -2561,7 +2561,7 @@
         <v>1.5</v>
       </c>
       <c r="C226" s="0">
-        <v>20.952918115301731</v>
+        <v>20.950069045933184</v>
       </c>
     </row>
     <row r="227">
@@ -2572,7 +2572,7 @@
         <v>1.5</v>
       </c>
       <c r="C227" s="0">
-        <v>20.92915818692094</v>
+        <v>20.928443371102837</v>
       </c>
     </row>
     <row r="228">
@@ -2583,7 +2583,7 @@
         <v>1.5</v>
       </c>
       <c r="C228" s="0">
-        <v>20.905288790150763</v>
+        <v>20.91063700885595</v>
       </c>
     </row>
     <row r="229">
@@ -2594,7 +2594,7 @@
         <v>1.5</v>
       </c>
       <c r="C229" s="0">
-        <v>20.893611183669961</v>
+        <v>20.89154398730739</v>
       </c>
     </row>
     <row r="230">
@@ -2605,7 +2605,7 @@
         <v>1.5</v>
       </c>
       <c r="C230" s="0">
-        <v>20.8743990623522</v>
+        <v>20.878338086898864</v>
       </c>
     </row>
     <row r="231">
@@ -2616,7 +2616,7 @@
         <v>1.5</v>
       </c>
       <c r="C231" s="0">
-        <v>20.866260811697266</v>
+        <v>20.863026815418333</v>
       </c>
     </row>
     <row r="232">
@@ -2627,7 +2627,7 @@
         <v>1.5</v>
       </c>
       <c r="C232" s="0">
-        <v>20.852896095969616</v>
+        <v>20.849427900818121</v>
       </c>
     </row>
     <row r="233">
@@ -2638,7 +2638,7 @@
         <v>1.5</v>
       </c>
       <c r="C233" s="0">
-        <v>20.828440860526001</v>
+        <v>20.835414094919912</v>
       </c>
     </row>
     <row r="234">
@@ -2649,7 +2649,7 @@
         <v>1.5</v>
       </c>
       <c r="C234" s="0">
-        <v>20.817328418663202</v>
+        <v>20.813233210844356</v>
       </c>
     </row>
     <row r="235">
@@ -2660,7 +2660,7 @@
         <v>1.5</v>
       </c>
       <c r="C235" s="0">
-        <v>20.798666635926541</v>
+        <v>20.798911886782211</v>
       </c>
     </row>
     <row r="236">
@@ -2671,7 +2671,7 @@
         <v>1.5</v>
       </c>
       <c r="C236" s="0">
-        <v>20.782031907564555</v>
+        <v>20.785731749524953</v>
       </c>
     </row>
     <row r="237">
@@ -2682,7 +2682,7 @@
         <v>1.5</v>
       </c>
       <c r="C237" s="0">
-        <v>20.772527041737934</v>
+        <v>20.771608273237359</v>
       </c>
     </row>
     <row r="238">
@@ -2693,7 +2693,7 @@
         <v>1.5</v>
       </c>
       <c r="C238" s="0">
-        <v>20.757549033736684</v>
+        <v>20.752945471084168</v>
       </c>
     </row>
     <row r="239">
@@ -2704,7 +2704,7 @@
         <v>1.5</v>
       </c>
       <c r="C239" s="0">
-        <v>20.735849294628981</v>
+        <v>20.735865129242917</v>
       </c>
     </row>
     <row r="240">
@@ -2715,7 +2715,7 @@
         <v>1.5</v>
       </c>
       <c r="C240" s="0">
-        <v>20.715539673421024</v>
+        <v>20.7215778533578</v>
       </c>
     </row>
     <row r="241">
@@ -2726,7 +2726,7 @@
         <v>1.5</v>
       </c>
       <c r="C241" s="0">
-        <v>20.702666901654339</v>
+        <v>20.698691305488779</v>
       </c>
     </row>
     <row r="242">
@@ -2737,7 +2737,7 @@
         <v>1.5</v>
       </c>
       <c r="C242" s="0">
-        <v>20.681482990318159</v>
+        <v>20.683389688782281</v>
       </c>
     </row>
     <row r="243">
@@ -2748,7 +2748,7 @@
         <v>1.5</v>
       </c>
       <c r="C243" s="0">
-        <v>20.672025912975812</v>
+        <v>20.670380813163742</v>
       </c>
     </row>
     <row r="244">
@@ -2759,7 +2759,7 @@
         <v>1.5</v>
       </c>
       <c r="C244" s="0">
-        <v>20.654273397032476</v>
+        <v>20.658273917023227</v>
       </c>
     </row>
     <row r="245">
@@ -2770,7 +2770,7 @@
         <v>1.5</v>
       </c>
       <c r="C245" s="0">
-        <v>20.642161343567473</v>
+        <v>20.638701202559826</v>
       </c>
     </row>
     <row r="246">
@@ -2781,7 +2781,7 @@
         <v>1.5</v>
       </c>
       <c r="C246" s="0">
-        <v>20.629956408969072</v>
+        <v>20.624821809848569</v>
       </c>
     </row>
     <row r="247">
@@ -2792,7 +2792,7 @@
         <v>1.5</v>
       </c>
       <c r="C247" s="0">
-        <v>20.605433563997838</v>
+        <v>20.61035421029792</v>
       </c>
     </row>
     <row r="248">
@@ -2803,7 +2803,7 @@
         <v>1.5</v>
       </c>
       <c r="C248" s="0">
-        <v>20.588004705933059</v>
+        <v>20.590205611371498</v>
       </c>
     </row>
     <row r="249">
@@ -2814,7 +2814,7 @@
         <v>1.5</v>
       </c>
       <c r="C249" s="0">
-        <v>20.574127405200315</v>
+        <v>20.572451446386296</v>
       </c>
     </row>
     <row r="250">
@@ -2825,7 +2825,7 @@
         <v>1.5</v>
       </c>
       <c r="C250" s="0">
-        <v>20.558451582069395</v>
+        <v>20.553901914770069</v>
       </c>
     </row>
     <row r="251">
@@ -2836,7 +2836,7 @@
         <v>1.5</v>
       </c>
       <c r="C251" s="0">
-        <v>20.536703238173889</v>
+        <v>20.539478250247161</v>
       </c>
     </row>
     <row r="252">
@@ -2847,7 +2847,7 @@
         <v>1.5</v>
       </c>
       <c r="C252" s="0">
-        <v>20.523243928422303</v>
+        <v>20.525460396682021</v>
       </c>
     </row>
     <row r="253">
@@ -2858,7 +2858,7 @@
         <v>1.5</v>
       </c>
       <c r="C253" s="0">
-        <v>20.51353353764954</v>
+        <v>20.51341690889852</v>
       </c>
     </row>
     <row r="254">
@@ -2869,7 +2869,7 @@
         <v>1.5</v>
       </c>
       <c r="C254" s="0">
-        <v>20.501600841201977</v>
+        <v>20.499178705316911</v>
       </c>
     </row>
     <row r="255">
@@ -2880,7 +2880,7 @@
         <v>1.5</v>
       </c>
       <c r="C255" s="0">
-        <v>20.486111952107098</v>
+        <v>20.481269890089653</v>
       </c>
     </row>
     <row r="256">
@@ -2891,7 +2891,7 @@
         <v>1.5</v>
       </c>
       <c r="C256" s="0">
-        <v>20.460571074961891</v>
+        <v>20.463584253463434</v>
       </c>
     </row>
     <row r="257">
@@ -2902,7 +2902,7 @@
         <v>1.5</v>
       </c>
       <c r="C257" s="0">
-        <v>20.441190784817877</v>
+        <v>20.447254258494851</v>
       </c>
     </row>
     <row r="258">
@@ -2913,7 +2913,7 @@
         <v>1.5</v>
       </c>
       <c r="C258" s="0">
-        <v>20.433722373928973</v>
+        <v>20.432407945858568</v>
       </c>
     </row>
     <row r="259">
@@ -2924,7 +2924,7 @@
         <v>1.5</v>
       </c>
       <c r="C259" s="0">
-        <v>20.424512116297397</v>
+        <v>20.423676527393965</v>
       </c>
     </row>
     <row r="260">
@@ -2935,7 +2935,7 @@
         <v>1.5</v>
       </c>
       <c r="C260" s="0">
-        <v>20.41763124350387</v>
+        <v>20.413213266484185</v>
       </c>
     </row>
     <row r="261">
@@ -2946,7 +2946,7 @@
         <v>1.5</v>
       </c>
       <c r="C261" s="0">
-        <v>20.397357103373736</v>
+        <v>20.399394567664402</v>
       </c>
     </row>
     <row r="262">
@@ -2957,7 +2957,7 @@
         <v>1.5</v>
       </c>
       <c r="C262" s="0">
-        <v>20.377066147549392</v>
+        <v>20.37770804131917</v>
       </c>
     </row>
     <row r="263">
@@ -2968,7 +2968,7 @@
         <v>1.5</v>
       </c>
       <c r="C263" s="0">
-        <v>20.360102201148869</v>
+        <v>20.35898296264266</v>
       </c>
     </row>
     <row r="264">
@@ -2979,7 +2979,7 @@
         <v>1.5</v>
       </c>
       <c r="C264" s="0">
-        <v>20.342165857401152</v>
+        <v>20.346321855458594</v>
       </c>
     </row>
     <row r="265">
@@ -2990,7 +2990,7 @@
         <v>1.5</v>
       </c>
       <c r="C265" s="0">
-        <v>20.333204833530996</v>
+        <v>20.337165429647555</v>
       </c>
     </row>
     <row r="266">
@@ -3001,7 +3001,7 @@
         <v>1.5</v>
       </c>
       <c r="C266" s="0">
-        <v>20.332887631078986</v>
+        <v>20.328396928735213</v>
       </c>
     </row>
     <row r="267">
@@ -3012,7 +3012,7 @@
         <v>1.5</v>
       </c>
       <c r="C267" s="0">
-        <v>20.322349012567191</v>
+        <v>20.320263167557389</v>
       </c>
     </row>
     <row r="268">
@@ -3023,7 +3023,7 @@
         <v>1.5</v>
       </c>
       <c r="C268" s="0">
-        <v>20.309667163922541</v>
+        <v>20.307442245025491</v>
       </c>
     </row>
     <row r="269">
@@ -3034,7 +3034,7 @@
         <v>1.5</v>
       </c>
       <c r="C269" s="0">
-        <v>20.290162231545146</v>
+        <v>20.295048282659007</v>
       </c>
     </row>
     <row r="270">
@@ -3045,7 +3045,7 @@
         <v>1.5</v>
       </c>
       <c r="C270" s="0">
-        <v>20.279195647884741</v>
+        <v>20.282800725334507</v>
       </c>
     </row>
     <row r="271">
@@ -3056,7 +3056,7 @@
         <v>1.5</v>
       </c>
       <c r="C271" s="0">
-        <v>20.273200522782862</v>
+        <v>20.269621604672302</v>
       </c>
     </row>
     <row r="272">
@@ -3067,7 +3067,7 @@
         <v>1.5</v>
       </c>
       <c r="C272" s="0">
-        <v>20.261289228223969</v>
+        <v>20.258965368718716</v>
       </c>
     </row>
     <row r="273">
@@ -3078,7 +3078,7 @@
         <v>1.5</v>
       </c>
       <c r="C273" s="0">
-        <v>20.244099037398296</v>
+        <v>20.24116710412483</v>
       </c>
     </row>
     <row r="274">
@@ -3089,7 +3089,7 @@
         <v>1.5</v>
       </c>
       <c r="C274" s="0">
-        <v>20.218287307520658</v>
+        <v>20.2253938217018</v>
       </c>
     </row>
     <row r="275">
@@ -3100,7 +3100,7 @@
         <v>1.5</v>
       </c>
       <c r="C275" s="0">
-        <v>20.207483676636375</v>
+        <v>20.204138898015355</v>
       </c>
     </row>
     <row r="276">
@@ -3111,7 +3111,7 @@
         <v>1.5</v>
       </c>
       <c r="C276" s="0">
-        <v>20.190219091271683</v>
+        <v>20.191055880213153</v>
       </c>
     </row>
     <row r="277">
@@ -3122,7 +3122,7 @@
         <v>1.5</v>
       </c>
       <c r="C277" s="0">
-        <v>20.180253416425696</v>
+        <v>20.179706180806281</v>
       </c>
     </row>
     <row r="278">
@@ -3133,7 +3133,7 @@
         <v>1.5</v>
       </c>
       <c r="C278" s="0">
-        <v>20.169257087731665</v>
+        <v>20.171463685143095</v>
       </c>
     </row>
     <row r="279">
@@ -3144,7 +3144,7 @@
         <v>1.5</v>
       </c>
       <c r="C279" s="0">
-        <v>20.159858936623504</v>
+        <v>20.158654362127091</v>
       </c>
     </row>
     <row r="280">
@@ -3155,7 +3155,7 @@
         <v>1.5</v>
       </c>
       <c r="C280" s="0">
-        <v>20.146104523771399</v>
+        <v>20.140749579692095</v>
       </c>
     </row>
     <row r="281">
@@ -3166,7 +3166,7 @@
         <v>1.5</v>
       </c>
       <c r="C281" s="0">
-        <v>20.126064720853641</v>
+        <v>20.125430216156541</v>
       </c>
     </row>
     <row r="282">
@@ -3177,7 +3177,7 @@
         <v>1.5</v>
       </c>
       <c r="C282" s="0">
-        <v>20.105428836250908</v>
+        <v>20.108824403483872</v>
       </c>
     </row>
     <row r="283">
@@ -3188,7 +3188,7 @@
         <v>1.5</v>
       </c>
       <c r="C283" s="0">
-        <v>20.090134136020357</v>
+        <v>20.093760129573585</v>
       </c>
     </row>
     <row r="284">
@@ -3199,7 +3199,7 @@
         <v>1.5</v>
       </c>
       <c r="C284" s="0">
-        <v>20.08422581163375</v>
+        <v>20.080273072337658</v>
       </c>
     </row>
     <row r="285">
@@ -3210,7 +3210,7 @@
         <v>1.5</v>
       </c>
       <c r="C285" s="0">
-        <v>20.073412716540624</v>
+        <v>20.075770289033638</v>
       </c>
     </row>
     <row r="286">
@@ -3221,7 +3221,7 @@
         <v>1.5</v>
       </c>
       <c r="C286" s="0">
-        <v>20.066614329752877</v>
+        <v>20.066763500704187</v>
       </c>
     </row>
     <row r="287">
@@ -3232,7 +3232,7 @@
         <v>1.5</v>
       </c>
       <c r="C287" s="0">
-        <v>20.056548457676222</v>
+        <v>20.055408226578589</v>
       </c>
     </row>
     <row r="288">
@@ -3243,7 +3243,7 @@
         <v>1.5</v>
       </c>
       <c r="C288" s="0">
-        <v>20.044674047571718</v>
+        <v>20.041057822795782</v>
       </c>
     </row>
     <row r="289">
@@ -3254,7 +3254,7 @@
         <v>1.5</v>
       </c>
       <c r="C289" s="0">
-        <v>20.027719583866368</v>
+        <v>20.029473132468397</v>
       </c>
     </row>
     <row r="290">
@@ -3265,7 +3265,7 @@
         <v>1.5</v>
       </c>
       <c r="C290" s="0">
-        <v>20.013852885836318</v>
+        <v>20.019154917728436</v>
       </c>
     </row>
     <row r="291">
@@ -3276,7 +3276,7 @@
         <v>1.5</v>
       </c>
       <c r="C291" s="0">
-        <v>20.005868802196982</v>
+        <v>20.000933196431458</v>
       </c>
     </row>
     <row r="292">
@@ -3287,7 +3287,7 @@
         <v>1.5</v>
       </c>
       <c r="C292" s="0">
-        <v>19.991887723695491</v>
+        <v>19.990438254894716</v>
       </c>
     </row>
     <row r="293">
@@ -3298,7 +3298,7 @@
         <v>1.5</v>
       </c>
       <c r="C293" s="0">
-        <v>19.979120363889155</v>
+        <v>19.983479132272926</v>
       </c>
     </row>
     <row r="294">
@@ -3309,7 +3309,7 @@
         <v>1.5</v>
       </c>
       <c r="C294" s="0">
-        <v>19.969274006685239</v>
+        <v>19.969883535761554</v>
       </c>
     </row>
     <row r="295">
@@ -3320,7 +3320,7 @@
         <v>1.5</v>
       </c>
       <c r="C295" s="0">
-        <v>19.956901151241503</v>
+        <v>19.955069964731347</v>
       </c>
     </row>
     <row r="296">
@@ -3331,7 +3331,7 @@
         <v>1.5</v>
       </c>
       <c r="C296" s="0">
-        <v>19.946391669563088</v>
+        <v>19.94498326863841</v>
       </c>
     </row>
     <row r="297">
@@ -3342,7 +3342,7 @@
         <v>1.5</v>
       </c>
       <c r="C297" s="0">
-        <v>19.931917358339319</v>
+        <v>19.933881039432112</v>
       </c>
     </row>
     <row r="298">
@@ -3353,7 +3353,7 @@
         <v>1.5</v>
       </c>
       <c r="C298" s="0">
-        <v>19.917153587099421</v>
+        <v>19.917757682842343</v>
       </c>
     </row>
     <row r="299">
@@ -3364,7 +3364,7 @@
         <v>1.5</v>
       </c>
       <c r="C299" s="0">
-        <v>19.907057741286824</v>
+        <v>19.906936945303247</v>
       </c>
     </row>
     <row r="300">
@@ -3375,7 +3375,7 @@
         <v>1.5</v>
       </c>
       <c r="C300" s="0">
-        <v>19.897819496407536</v>
+        <v>19.897135621484399</v>
       </c>
     </row>
     <row r="301">
@@ -3386,7 +3386,7 @@
         <v>1.5</v>
       </c>
       <c r="C301" s="0">
-        <v>19.883874809303599</v>
+        <v>19.885463360673974</v>
       </c>
     </row>
     <row r="302">
@@ -3397,7 +3397,7 @@
         <v>1.5</v>
       </c>
       <c r="C302" s="0">
-        <v>19.872600208256433</v>
+        <v>19.871620506685669</v>
       </c>
     </row>
     <row r="303">
@@ -3408,7 +3408,7 @@
         <v>1.5</v>
       </c>
       <c r="C303" s="0">
-        <v>19.861314392344951</v>
+        <v>19.859227479583417</v>
       </c>
     </row>
     <row r="304">
@@ -3419,7 +3419,7 @@
         <v>1.5</v>
       </c>
       <c r="C304" s="0">
-        <v>19.846325374677647</v>
+        <v>19.851245836516654</v>
       </c>
     </row>
     <row r="305">
@@ -3430,7 +3430,7 @@
         <v>1.5</v>
       </c>
       <c r="C305" s="0">
-        <v>19.839420503458303</v>
+        <v>19.839178616532788</v>
       </c>
     </row>
     <row r="306">
@@ -3441,7 +3441,7 @@
         <v>1.5</v>
       </c>
       <c r="C306" s="0">
-        <v>19.830641992750351</v>
+        <v>19.827263769768397</v>
       </c>
     </row>
     <row r="307">
@@ -3452,7 +3452,7 @@
         <v>1.5</v>
       </c>
       <c r="C307" s="0">
-        <v>19.81761454374535</v>
+        <v>19.816789598215426</v>
       </c>
     </row>
     <row r="308">
@@ -3463,7 +3463,7 @@
         <v>1.5</v>
       </c>
       <c r="C308" s="0">
-        <v>19.8055611801536</v>
+        <v>19.805895780591378</v>
       </c>
     </row>
     <row r="309">
@@ -3474,7 +3474,7 @@
         <v>1.5</v>
       </c>
       <c r="C309" s="0">
-        <v>19.788977900305177</v>
+        <v>19.794332352551027</v>
       </c>
     </row>
     <row r="310">
@@ -3485,7 +3485,7 @@
         <v>1.5</v>
       </c>
       <c r="C310" s="0">
-        <v>19.785695063703496</v>
+        <v>19.777408173608805</v>
       </c>
     </row>
     <row r="311">
@@ -3496,7 +3496,7 @@
         <v>1.5</v>
       </c>
       <c r="C311" s="0">
-        <v>19.77011553930026</v>
+        <v>19.773562678824511</v>
       </c>
     </row>
     <row r="312">
@@ -3507,7 +3507,7 @@
         <v>1.5</v>
       </c>
       <c r="C312" s="0">
-        <v>19.762444071390302</v>
+        <v>19.767648560496216</v>
       </c>
     </row>
     <row r="313">
@@ -3518,7 +3518,7 @@
         <v>1.5</v>
       </c>
       <c r="C313" s="0">
-        <v>19.762101027161254</v>
+        <v>19.757661794369383</v>
       </c>
     </row>
     <row r="314">
@@ -3529,7 +3529,7 @@
         <v>1.5</v>
       </c>
       <c r="C314" s="0">
-        <v>19.752404271905718</v>
+        <v>19.751403208981458</v>
       </c>
     </row>
     <row r="315">
@@ -3540,7 +3540,7 @@
         <v>1.5</v>
       </c>
       <c r="C315" s="0">
-        <v>19.744700865955174</v>
+        <v>19.744437755832266</v>
       </c>
     </row>
     <row r="316">
@@ -3551,7 +3551,7 @@
         <v>1.5</v>
       </c>
       <c r="C316" s="0">
-        <v>19.731813652403172</v>
+        <v>19.729192918902381</v>
       </c>
     </row>
     <row r="317">
@@ -3562,7 +3562,7 @@
         <v>1.5</v>
       </c>
       <c r="C317" s="0">
-        <v>19.709882981793321</v>
+        <v>19.712806486754211</v>
       </c>
     </row>
     <row r="318">
@@ -3573,7 +3573,7 @@
         <v>1.5</v>
       </c>
       <c r="C318" s="0">
-        <v>19.700045624263172</v>
+        <v>19.701261065289675</v>
       </c>
     </row>
     <row r="319">
@@ -3584,7 +3584,7 @@
         <v>1.5</v>
       </c>
       <c r="C319" s="0">
-        <v>19.691152117488979</v>
+        <v>19.691760620738069</v>
       </c>
     </row>
     <row r="320">
@@ -3595,7 +3595,7 @@
         <v>1.5</v>
       </c>
       <c r="C320" s="0">
-        <v>19.680115419931386</v>
+        <v>19.681914456536493</v>
       </c>
     </row>
     <row r="321">
@@ -3606,7 +3606,7 @@
         <v>1.5</v>
       </c>
       <c r="C321" s="0">
-        <v>19.677758284998848</v>
+        <v>19.673597884745924</v>
       </c>
     </row>
     <row r="322">
@@ -3617,7 +3617,7 @@
         <v>1.5</v>
       </c>
       <c r="C322" s="0">
-        <v>19.66471182438768</v>
+        <v>19.665267950152479</v>
       </c>
     </row>
     <row r="323">
@@ -3628,7 +3628,7 @@
         <v>1.5</v>
       </c>
       <c r="C323" s="0">
-        <v>19.650288221960192</v>
+        <v>19.653335420056226</v>
       </c>
     </row>
     <row r="324">
@@ -3639,7 +3639,7 @@
         <v>1.5</v>
       </c>
       <c r="C324" s="0">
-        <v>19.644133752085686</v>
+        <v>19.643906174105002</v>
       </c>
     </row>
     <row r="325">
@@ -3650,7 +3650,7 @@
         <v>1.5</v>
       </c>
       <c r="C325" s="0">
-        <v>19.634374481871074</v>
+        <v>19.635583788241636</v>
       </c>
     </row>
     <row r="326">
@@ -3661,7 +3661,7 @@
         <v>1.5</v>
       </c>
       <c r="C326" s="0">
-        <v>19.624803717294679</v>
+        <v>19.620341091903288</v>
       </c>
     </row>
     <row r="327">
@@ -3672,7 +3672,7 @@
         <v>1.5</v>
       </c>
       <c r="C327" s="0">
-        <v>19.609563440820519</v>
+        <v>19.608789013548524</v>
       </c>
     </row>
     <row r="328">
@@ -3683,7 +3683,7 @@
         <v>1.5</v>
       </c>
       <c r="C328" s="0">
-        <v>19.593358034239689</v>
+        <v>19.595842789198777</v>
       </c>
     </row>
     <row r="329">
@@ -3694,7 +3694,7 @@
         <v>1.5</v>
       </c>
       <c r="C329" s="0">
-        <v>19.579344773678066</v>
+        <v>19.578808629178699</v>
       </c>
     </row>
     <row r="330">
@@ -3705,7 +3705,7 @@
         <v>1.5</v>
       </c>
       <c r="C330" s="0">
-        <v>19.56845484490669</v>
+        <v>19.569975336645914</v>
       </c>
     </row>
     <row r="331">
@@ -3716,7 +3716,7 @@
         <v>1.5</v>
       </c>
       <c r="C331" s="0">
-        <v>19.562512333221285</v>
+        <v>19.56208905686465</v>
       </c>
     </row>
     <row r="332">
@@ -3727,7 +3727,7 @@
         <v>1.5</v>
       </c>
       <c r="C332" s="0">
-        <v>19.551409809802866</v>
+        <v>19.555340993034783</v>
       </c>
     </row>
     <row r="333">
@@ -3738,7 +3738,7 @@
         <v>1.5</v>
       </c>
       <c r="C333" s="0">
-        <v>19.547301799932114</v>
+        <v>19.542732582852999</v>
       </c>
     </row>
     <row r="334">
@@ -3749,7 +3749,7 @@
         <v>1.5</v>
       </c>
       <c r="C334" s="0">
-        <v>19.534338381501186</v>
+        <v>19.531730689307164</v>
       </c>
     </row>
     <row r="335">
@@ -3760,7 +3760,7 @@
         <v>1.5</v>
       </c>
       <c r="C335" s="0">
-        <v>19.512679837067822</v>
+        <v>19.514939278942283</v>
       </c>
     </row>
     <row r="336">
@@ -3771,7 +3771,7 @@
         <v>1.5</v>
       </c>
       <c r="C336" s="0">
-        <v>19.495959519109284</v>
+        <v>19.495538738030231</v>
       </c>
     </row>
     <row r="337">
@@ -3782,7 +3782,7 @@
         <v>1.5</v>
       </c>
       <c r="C337" s="0">
-        <v>19.480941725620237</v>
+        <v>19.484662934339344</v>
       </c>
     </row>
     <row r="338">
@@ -3793,7 +3793,7 @@
         <v>1.5</v>
       </c>
       <c r="C338" s="0">
-        <v>19.475848215027291</v>
+        <v>19.4749567016637</v>
       </c>
     </row>
     <row r="339">
@@ -3804,7 +3804,7 @@
         <v>1.5</v>
       </c>
       <c r="C339" s="0">
-        <v>19.467214270591338</v>
+        <v>19.468859793195307</v>
       </c>
     </row>
     <row r="340">
@@ -3815,7 +3815,7 @@
         <v>1.5</v>
       </c>
       <c r="C340" s="0">
-        <v>19.463723942097964</v>
+        <v>19.459437222367775</v>
       </c>
     </row>
     <row r="341">
@@ -3826,7 +3826,7 @@
         <v>1.5</v>
       </c>
       <c r="C341" s="0">
-        <v>19.448522202492029</v>
+        <v>19.451875166353286</v>
       </c>
     </row>
     <row r="342">
@@ -3837,7 +3837,7 @@
         <v>1.5</v>
       </c>
       <c r="C342" s="0">
-        <v>19.438371989966569</v>
+        <v>19.433789203280412</v>
       </c>
     </row>
     <row r="343">
@@ -3848,7 +3848,7 @@
         <v>1.5</v>
       </c>
       <c r="C343" s="0">
-        <v>19.421948859046143</v>
+        <v>19.425196651204114</v>
       </c>
     </row>
     <row r="344">
@@ -3859,7 +3859,7 @@
         <v>1.5</v>
       </c>
       <c r="C344" s="0">
-        <v>19.413411135431204</v>
+        <v>19.416417939237441</v>
       </c>
     </row>
     <row r="345">
@@ -3870,7 +3870,7 @@
         <v>1.5</v>
       </c>
       <c r="C345" s="0">
-        <v>19.408089957757941</v>
+        <v>19.405223954970328</v>
       </c>
     </row>
     <row r="346">
@@ -3881,7 +3881,7 @@
         <v>1.5</v>
       </c>
       <c r="C346" s="0">
-        <v>19.399395673675816</v>
+        <v>19.39748033493558</v>
       </c>
     </row>
     <row r="347">
@@ -3892,7 +3892,7 @@
         <v>1.5</v>
       </c>
       <c r="C347" s="0">
-        <v>19.391070089680092</v>
+        <v>19.389750100095675</v>
       </c>
     </row>
     <row r="348">
@@ -3903,7 +3903,7 @@
         <v>1.5</v>
       </c>
       <c r="C348" s="0">
-        <v>19.375919107463076</v>
+        <v>19.37971243344164</v>
       </c>
     </row>
     <row r="349">
@@ -3914,7 +3914,7 @@
         <v>1.5</v>
       </c>
       <c r="C349" s="0">
-        <v>19.365773365724554</v>
+        <v>19.363048863263369</v>
       </c>
     </row>
     <row r="350">
@@ -3925,7 +3925,7 @@
         <v>1.5</v>
       </c>
       <c r="C350" s="0">
-        <v>19.353047641623579</v>
+        <v>19.352941533857596</v>
       </c>
     </row>
     <row r="351">
@@ -3936,7 +3936,7 @@
         <v>1.5</v>
       </c>
       <c r="C351" s="0">
-        <v>19.34078775403156</v>
+        <v>19.345627540550979</v>
       </c>
     </row>
     <row r="352">
@@ -3947,7 +3947,7 @@
         <v>1.5</v>
       </c>
       <c r="C352" s="0">
-        <v>19.336543322965941</v>
+        <v>19.334253737477095</v>
       </c>
     </row>
     <row r="353">
@@ -3958,7 +3958,7 @@
         <v>1.5</v>
       </c>
       <c r="C353" s="0">
-        <v>19.330206390370503</v>
+        <v>19.327106891926036</v>
       </c>
     </row>
     <row r="354">
@@ -3969,7 +3969,7 @@
         <v>1.5</v>
       </c>
       <c r="C354" s="0">
-        <v>19.318010372521474</v>
+        <v>19.319670246890212</v>
       </c>
     </row>
     <row r="355">
@@ -3980,7 +3980,7 @@
         <v>1.5</v>
       </c>
       <c r="C355" s="0">
-        <v>19.308993054870573</v>
+        <v>19.306908031363072</v>
       </c>
     </row>
     <row r="356">
@@ -3991,7 +3991,7 @@
         <v>1.5</v>
       </c>
       <c r="C356" s="0">
-        <v>19.294145754467682</v>
+        <v>19.295741784178613</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         <v>1.5</v>
       </c>
       <c r="C357" s="0">
-        <v>19.285904128253726</v>
+        <v>19.288036235756518</v>
       </c>
     </row>
     <row r="358">
@@ -4013,7 +4013,7 @@
         <v>1.5</v>
       </c>
       <c r="C358" s="0">
-        <v>19.280154951100094</v>
+        <v>19.281827928399263</v>
       </c>
     </row>
     <row r="359">
@@ -4024,7 +4024,7 @@
         <v>1.5</v>
       </c>
       <c r="C359" s="0">
-        <v>19.274689325203259</v>
+        <v>19.271531737193062</v>
       </c>
     </row>
     <row r="360">
@@ -4035,7 +4035,7 @@
         <v>1.5</v>
       </c>
       <c r="C360" s="0">
-        <v>19.264276985229188</v>
+        <v>19.263547537204214</v>
       </c>
     </row>
     <row r="361">
@@ -4046,7 +4046,7 @@
         <v>1.5</v>
       </c>
       <c r="C361" s="0">
-        <v>19.255164045978461</v>
+        <v>19.258605326450429</v>
       </c>
     </row>
     <row r="362">
@@ -4057,7 +4057,7 @@
         <v>1.5</v>
       </c>
       <c r="C362" s="0">
-        <v>19.247832586842112</v>
+        <v>19.248382035713657</v>
       </c>
     </row>
     <row r="363">
@@ -4068,7 +4068,7 @@
         <v>1.5</v>
       </c>
       <c r="C363" s="0">
-        <v>19.240260960961177</v>
+        <v>19.238404641902246</v>
       </c>
     </row>
     <row r="364">
@@ -4079,7 +4079,7 @@
         <v>1.5</v>
       </c>
       <c r="C364" s="0">
-        <v>19.23394863419955</v>
+        <v>19.23057988547469</v>
       </c>
     </row>
     <row r="365">
@@ -4090,7 +4090,7 @@
         <v>1.5</v>
       </c>
       <c r="C365" s="0">
-        <v>19.217468448653833</v>
+        <v>19.220813594279477</v>
       </c>
     </row>
     <row r="366">
@@ -4101,7 +4101,7 @@
         <v>1.5</v>
       </c>
       <c r="C366" s="0">
-        <v>19.205244431408943</v>
+        <v>19.206159621874889</v>
       </c>
     </row>
     <row r="367">
@@ -4112,7 +4112,7 @@
         <v>1.5</v>
       </c>
       <c r="C367" s="0">
-        <v>19.195688573417023</v>
+        <v>19.193686229063168</v>
       </c>
     </row>
     <row r="368">
@@ -4123,7 +4123,7 @@
         <v>1.5</v>
       </c>
       <c r="C368" s="0">
-        <v>19.181974617634687</v>
+        <v>19.183233382494727</v>
       </c>
     </row>
     <row r="369">
@@ -4134,7 +4134,7 @@
         <v>1.5</v>
       </c>
       <c r="C369" s="0">
-        <v>19.169021306736891</v>
+        <v>19.164264644249659</v>
       </c>
     </row>
     <row r="370">
@@ -4145,7 +4145,7 @@
         <v>1.5</v>
       </c>
       <c r="C370" s="0">
-        <v>19.149868074680658</v>
+        <v>19.154095983501261</v>
       </c>
     </row>
     <row r="371">
@@ -4156,7 +4156,7 @@
         <v>1.5</v>
       </c>
       <c r="C371" s="0">
-        <v>19.144780587462304</v>
+        <v>19.145854392233403</v>
       </c>
     </row>
     <row r="372">
@@ -4167,7 +4167,7 @@
         <v>1.5</v>
       </c>
       <c r="C372" s="0">
-        <v>19.140140313095582</v>
+        <v>19.14011087945935</v>
       </c>
     </row>
     <row r="373">
@@ -4178,7 +4178,7 @@
         <v>1.5</v>
       </c>
       <c r="C373" s="0">
-        <v>19.135609739781923</v>
+        <v>19.133220762065349</v>
       </c>
     </row>
     <row r="374">
@@ -4189,7 +4189,7 @@
         <v>1.5</v>
       </c>
       <c r="C374" s="0">
-        <v>19.130014509920656</v>
+        <v>19.128278135140967</v>
       </c>
     </row>
     <row r="375">
@@ -4200,7 +4200,7 @@
         <v>1.5</v>
       </c>
       <c r="C375" s="0">
-        <v>19.119343437380476</v>
+        <v>19.12123866536303</v>
       </c>
     </row>
     <row r="376">
@@ -4211,7 +4211,7 @@
         <v>1.5</v>
       </c>
       <c r="C376" s="0">
-        <v>19.106613113616437</v>
+        <v>19.108883685642148</v>
       </c>
     </row>
     <row r="377">
@@ -4222,7 +4222,7 @@
         <v>1.5</v>
       </c>
       <c r="C377" s="0">
-        <v>19.099046460558345</v>
+        <v>19.097342052337705</v>
       </c>
     </row>
     <row r="378">
@@ -4233,7 +4233,7 @@
         <v>1.5</v>
       </c>
       <c r="C378" s="0">
-        <v>19.089088607014606</v>
+        <v>19.087339661499993</v>
       </c>
     </row>
     <row r="379">
@@ -4244,7 +4244,7 @@
         <v>1.5</v>
       </c>
       <c r="C379" s="0">
-        <v>19.074362406336036</v>
+        <v>19.074739376801237</v>
       </c>
     </row>
     <row r="380">
@@ -4255,7 +4255,7 @@
         <v>1.5</v>
       </c>
       <c r="C380" s="0">
-        <v>19.061386953039996</v>
+        <v>19.06481152344529</v>
       </c>
     </row>
     <row r="381">
@@ -4266,7 +4266,7 @@
         <v>1.5</v>
       </c>
       <c r="C381" s="0">
-        <v>19.057511983169409</v>
+        <v>19.05584637344807</v>
       </c>
     </row>
     <row r="382">
@@ -4277,7 +4277,7 @@
         <v>1.5</v>
       </c>
       <c r="C382" s="0">
-        <v>19.046017016086044</v>
+        <v>19.047964170443286</v>
       </c>
     </row>
     <row r="383">
@@ -4288,7 +4288,7 @@
         <v>1.5</v>
       </c>
       <c r="C383" s="0">
-        <v>19.043021413218156</v>
+        <v>19.041183679934278</v>
       </c>
     </row>
     <row r="384">
@@ -4299,7 +4299,7 @@
         <v>1.5</v>
       </c>
       <c r="C384" s="0">
-        <v>19.035483340026708</v>
+        <v>19.037123098044194</v>
       </c>
     </row>
     <row r="385">
@@ -4310,7 +4310,7 @@
         <v>1.5</v>
       </c>
       <c r="C385" s="0">
-        <v>19.027448287990197</v>
+        <v>19.025234008913056</v>
       </c>
     </row>
     <row r="386">
@@ -4321,7 +4321,7 @@
         <v>1.5</v>
       </c>
       <c r="C386" s="0">
-        <v>19.014991008116894</v>
+        <v>19.01470480023789</v>
       </c>
     </row>
     <row r="387">
@@ -4332,7 +4332,7 @@
         <v>1.5</v>
       </c>
       <c r="C387" s="0">
-        <v>19.004740068859466</v>
+        <v>19.005701456191971</v>
       </c>
     </row>
     <row r="388">
@@ -4343,7 +4343,7 @@
         <v>1.5</v>
       </c>
       <c r="C388" s="0">
-        <v>18.994324019999361</v>
+        <v>18.994912547226715</v>
       </c>
     </row>
     <row r="389">
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="C389" s="0">
-        <v>18.985988037706935</v>
+        <v>18.987219946796415</v>
       </c>
     </row>
     <row r="390">
@@ -4365,7 +4365,7 @@
         <v>1.5</v>
       </c>
       <c r="C390" s="0">
-        <v>18.983148812291571</v>
+        <v>18.981109782606708</v>
       </c>
     </row>
     <row r="391">
@@ -4376,7 +4376,7 @@
         <v>1.5</v>
       </c>
       <c r="C391" s="0">
-        <v>18.973536111210809</v>
+        <v>18.970289227802006</v>
       </c>
     </row>
     <row r="392">
@@ -4387,7 +4387,7 @@
         <v>1.5</v>
       </c>
       <c r="C392" s="0">
-        <v>18.956814780465447</v>
+        <v>18.958139131010114</v>
       </c>
     </row>
     <row r="393">
@@ -4398,7 +4398,7 @@
         <v>1.5</v>
       </c>
       <c r="C393" s="0">
-        <v>18.946021637668611</v>
+        <v>18.947911457446736</v>
       </c>
     </row>
     <row r="394">
@@ -4409,7 +4409,7 @@
         <v>1.5</v>
       </c>
       <c r="C394" s="0">
-        <v>18.936407592895726</v>
+        <v>18.943785727664118</v>
       </c>
     </row>
     <row r="395">
@@ -4420,7 +4420,7 @@
         <v>1.5</v>
       </c>
       <c r="C395" s="0">
-        <v>18.942856285921419</v>
+        <v>18.940861906407893</v>
       </c>
     </row>
     <row r="396">
@@ -4431,7 +4431,7 @@
         <v>1.5</v>
       </c>
       <c r="C396" s="0">
-        <v>18.946195814288121</v>
+        <v>18.938849436465276</v>
       </c>
     </row>
     <row r="397">
@@ -4442,7 +4442,7 @@
         <v>1.5</v>
       </c>
       <c r="C397" s="0">
-        <v>18.934236055437541</v>
+        <v>18.935283847197592</v>
       </c>
     </row>
     <row r="398">
@@ -4453,7 +4453,7 @@
         <v>1.5</v>
       </c>
       <c r="C398" s="0">
-        <v>18.92327026378435</v>
+        <v>18.924650747258394</v>
       </c>
     </row>
     <row r="399">
@@ -4464,7 +4464,7 @@
         <v>1.5</v>
       </c>
       <c r="C399" s="0">
-        <v>18.911315345447324</v>
+        <v>18.912664192716406</v>
       </c>
     </row>
     <row r="400">
@@ -4475,7 +4475,7 @@
         <v>1.5</v>
       </c>
       <c r="C400" s="0">
-        <v>18.90156216700672</v>
+        <v>18.901936927301708</v>
       </c>
     </row>
     <row r="401">
@@ -4486,7 +4486,7 @@
         <v>1.5</v>
       </c>
       <c r="C401" s="0">
-        <v>18.892741236772999</v>
+        <v>18.889032679242874</v>
       </c>
     </row>
     <row r="402">
@@ -4497,7 +4497,7 @@
         <v>1.5</v>
       </c>
       <c r="C402" s="0">
-        <v>18.877289049381925</v>
+        <v>18.880701284133739</v>
       </c>
     </row>
     <row r="403">
@@ -4508,7 +4508,7 @@
         <v>1.5</v>
       </c>
       <c r="C403" s="0">
-        <v>18.869860862899117</v>
+        <v>18.871300599369324</v>
       </c>
     </row>
     <row r="404">
@@ -4519,7 +4519,7 @@
         <v>1.5</v>
       </c>
       <c r="C404" s="0">
-        <v>18.866690095977596</v>
+        <v>18.865110962989363</v>
       </c>
     </row>
     <row r="405">
@@ -4530,7 +4530,7 @@
         <v>1.5</v>
       </c>
       <c r="C405" s="0">
-        <v>18.860998992046046</v>
+        <v>18.864822387065349</v>
       </c>
     </row>
     <row r="406">
@@ -4541,7 +4541,7 @@
         <v>1.5</v>
       </c>
       <c r="C406" s="0">
-        <v>18.864837563388637</v>
+        <v>18.857688390341682</v>
       </c>
     </row>
     <row r="407">
@@ -4552,7 +4552,7 @@
         <v>1.5</v>
       </c>
       <c r="C407" s="0">
-        <v>18.850188264787739</v>
+        <v>18.850783492813608</v>
       </c>
     </row>
     <row r="408">
@@ -4563,7 +4563,7 @@
         <v>1.5</v>
       </c>
       <c r="C408" s="0">
-        <v>18.837924454132342</v>
+        <v>18.839769679946695</v>
       </c>
     </row>
     <row r="409">
@@ -4574,7 +4574,7 @@
         <v>1.5</v>
       </c>
       <c r="C409" s="0">
-        <v>18.827228901729498</v>
+        <v>18.828421600598247</v>
       </c>
     </row>
     <row r="410">
@@ -4585,7 +4585,7 @@
         <v>1.5</v>
       </c>
       <c r="C410" s="0">
-        <v>18.814640332202529</v>
+        <v>18.816770667811266</v>
       </c>
     </row>
     <row r="411">
@@ -4596,7 +4596,7 @@
         <v>1.5</v>
       </c>
       <c r="C411" s="0">
-        <v>18.810349086618146</v>
+        <v>18.804163652728647</v>
       </c>
     </row>
     <row r="412">
@@ -4607,7 +4607,7 @@
         <v>1.5</v>
       </c>
       <c r="C412" s="0">
-        <v>18.796502930070147</v>
+        <v>18.797227717782707</v>
       </c>
     </row>
     <row r="413">
@@ -4618,7 +4618,7 @@
         <v>1.5</v>
       </c>
       <c r="C413" s="0">
-        <v>18.784156234368321</v>
+        <v>18.78964269161429</v>
       </c>
     </row>
     <row r="414">
@@ -4629,7 +4629,7 @@
         <v>1.5</v>
       </c>
       <c r="C414" s="0">
-        <v>18.785451123898898</v>
+        <v>18.785092455025538</v>
       </c>
     </row>
     <row r="415">
@@ -4640,7 +4640,7 @@
         <v>1.5</v>
       </c>
       <c r="C415" s="0">
-        <v>18.784277075812206</v>
+        <v>18.784639903967026</v>
       </c>
     </row>
     <row r="416">
@@ -4651,7 +4651,7 @@
         <v>1.5</v>
       </c>
       <c r="C416" s="0">
-        <v>18.780983454285437</v>
+        <v>18.77526404900895</v>
       </c>
     </row>
     <row r="417">
@@ -4662,7 +4662,7 @@
         <v>1.5</v>
       </c>
       <c r="C417" s="0">
-        <v>18.765315213190835</v>
+        <v>18.762511573825119</v>
       </c>
     </row>
     <row r="418">
@@ -4673,7 +4673,7 @@
         <v>1.5</v>
       </c>
       <c r="C418" s="0">
-        <v>18.745087102966782</v>
+        <v>18.748312599760496</v>
       </c>
     </row>
     <row r="419">
@@ -4684,7 +4684,7 @@
         <v>1.5</v>
       </c>
       <c r="C419" s="0">
-        <v>18.732691449124154</v>
+        <v>18.738016026131579</v>
       </c>
     </row>
     <row r="420">
@@ -4695,7 +4695,7 @@
         <v>1.5</v>
       </c>
       <c r="C420" s="0">
-        <v>18.731183770047803</v>
+        <v>18.732912528718156</v>
       </c>
     </row>
     <row r="421">
@@ -4706,7 +4706,7 @@
         <v>1.5</v>
       </c>
       <c r="C421" s="0">
-        <v>18.737792111814208</v>
+        <v>18.732801988880901</v>
       </c>
     </row>
     <row r="422">
@@ -4717,7 +4717,7 @@
         <v>1.5</v>
       </c>
       <c r="C422" s="0">
-        <v>18.736008252245025</v>
+        <v>18.734726519832765</v>
       </c>
     </row>
     <row r="423">
@@ -4728,7 +4728,7 @@
         <v>1.5</v>
       </c>
       <c r="C423" s="0">
-        <v>18.729741486364869</v>
+        <v>18.728701822481277</v>
       </c>
     </row>
     <row r="424">
@@ -4739,7 +4739,7 @@
         <v>1.5</v>
       </c>
       <c r="C424" s="0">
-        <v>18.719637063159105</v>
+        <v>18.72234255851599</v>
       </c>
     </row>
     <row r="425">
@@ -4750,7 +4750,7 @@
         <v>1.5</v>
       </c>
       <c r="C425" s="0">
-        <v>18.713852831433691</v>
+        <v>18.714910054953418</v>
       </c>
     </row>
     <row r="426">
@@ -4761,7 +4761,7 @@
         <v>1.5</v>
       </c>
       <c r="C426" s="0">
-        <v>18.708488244159632</v>
+        <v>18.705704202006256</v>
       </c>
     </row>
     <row r="427">
@@ -4772,7 +4772,7 @@
         <v>1.5</v>
       </c>
       <c r="C427" s="0">
-        <v>18.697209677002348</v>
+        <v>18.695932856705408</v>
       </c>
     </row>
     <row r="428">
@@ -4783,7 +4783,7 @@
         <v>1.5</v>
       </c>
       <c r="C428" s="0">
-        <v>18.685713862188692</v>
+        <v>18.688644677251865</v>
       </c>
     </row>
     <row r="429">
@@ -4794,7 +4794,7 @@
         <v>1.5</v>
       </c>
       <c r="C429" s="0">
-        <v>18.679624284087151</v>
+        <v>18.680156094091732</v>
       </c>
     </row>
     <row r="430">
@@ -4805,7 +4805,7 @@
         <v>1.5</v>
       </c>
       <c r="C430" s="0">
-        <v>18.670692138769912</v>
+        <v>18.669093651322484</v>
       </c>
     </row>
     <row r="431">
@@ -4816,7 +4816,7 @@
         <v>1.5</v>
       </c>
       <c r="C431" s="0">
-        <v>18.662567456025045</v>
+        <v>18.660073939872305</v>
       </c>
     </row>
     <row r="432">
@@ -4827,7 +4827,7 @@
         <v>1.5</v>
       </c>
       <c r="C432" s="0">
-        <v>18.653983687186781</v>
+        <v>18.655336258814323</v>
       </c>
     </row>
     <row r="433">
@@ -4838,7 +4838,7 @@
         <v>1.5</v>
       </c>
       <c r="C433" s="0">
-        <v>18.646141761578789</v>
+        <v>18.649899284635854</v>
       </c>
     </row>
     <row r="434">
@@ -4849,7 +4849,7 @@
         <v>1.5</v>
       </c>
       <c r="C434" s="0">
-        <v>18.645549546177762</v>
+        <v>18.646333547661204</v>
       </c>
     </row>
     <row r="435">
@@ -4860,7 +4860,7 @@
         <v>1.5</v>
       </c>
       <c r="C435" s="0">
-        <v>18.646625378768402</v>
+        <v>18.641725743978487</v>
       </c>
     </row>
     <row r="436">
@@ -4871,7 +4871,7 @@
         <v>1.5</v>
       </c>
       <c r="C436" s="0">
-        <v>18.636048782203744</v>
+        <v>18.633572940676608</v>
       </c>
     </row>
     <row r="437">
@@ -4882,7 +4882,7 @@
         <v>1.5</v>
       </c>
       <c r="C437" s="0">
-        <v>18.620903027128662</v>
+        <v>18.625108240622659</v>
       </c>
     </row>
     <row r="438">
@@ -4893,7 +4893,7 @@
         <v>1.5</v>
       </c>
       <c r="C438" s="0">
-        <v>18.612850573645353</v>
+        <v>18.615501176506452</v>
       </c>
     </row>
     <row r="439">
@@ -4904,7 +4904,7 @@
         <v>1.5</v>
       </c>
       <c r="C439" s="0">
-        <v>18.607713638134371</v>
+        <v>18.608837343638484</v>
       </c>
     </row>
     <row r="440">
@@ -4915,7 +4915,7 @@
         <v>1.5</v>
       </c>
       <c r="C440" s="0">
-        <v>18.606458069028328</v>
+        <v>18.601192119320618</v>
       </c>
     </row>
     <row r="441">
@@ -4926,7 +4926,7 @@
         <v>1.5</v>
       </c>
       <c r="C441" s="0">
-        <v>18.596976136286724</v>
+        <v>18.595958806429703</v>
       </c>
     </row>
     <row r="442">
@@ -4937,7 +4937,7 @@
         <v>1.5</v>
       </c>
       <c r="C442" s="0">
-        <v>18.584178283278561</v>
+        <v>18.590708521071743</v>
       </c>
     </row>
     <row r="443">
@@ -4948,7 +4948,7 @@
         <v>1.5</v>
       </c>
       <c r="C443" s="0">
-        <v>18.583508321238654</v>
+        <v>18.579244431689776</v>
       </c>
     </row>
     <row r="444">
@@ -4959,7 +4959,7 @@
         <v>1.5</v>
       </c>
       <c r="C444" s="0">
-        <v>18.573925478750397</v>
+        <v>18.575110140180737</v>
       </c>
     </row>
     <row r="445">
@@ -4970,7 +4970,7 @@
         <v>1.5</v>
       </c>
       <c r="C445" s="0">
-        <v>18.569955202603975</v>
+        <v>18.566695558774683</v>
       </c>
     </row>
     <row r="446">
@@ -4981,7 +4981,7 @@
         <v>1.5</v>
       </c>
       <c r="C446" s="0">
-        <v>18.558079165438318</v>
+        <v>18.562964554969227</v>
       </c>
     </row>
     <row r="447">
@@ -4992,7 +4992,7 @@
         <v>1.5</v>
       </c>
       <c r="C447" s="0">
-        <v>18.555564584279274</v>
+        <v>18.552927793110388</v>
       </c>
     </row>
     <row r="448">
@@ -5003,7 +5003,7 @@
         <v>1.5</v>
       </c>
       <c r="C448" s="0">
-        <v>18.550344849551244</v>
+        <v>18.549475826493264</v>
       </c>
     </row>
     <row r="449">
@@ -5014,7 +5014,7 @@
         <v>1.5</v>
       </c>
       <c r="C449" s="0">
-        <v>18.545407744404411</v>
+        <v>18.547309079134767</v>
       </c>
     </row>
     <row r="450">
@@ -5025,7 +5025,7 @@
         <v>1.5</v>
       </c>
       <c r="C450" s="0">
-        <v>18.543930476661838</v>
+        <v>18.54495630567785</v>
       </c>
     </row>
     <row r="451">
@@ -5036,7 +5036,7 @@
         <v>1.5</v>
       </c>
       <c r="C451" s="0">
-        <v>18.543078074876874</v>
+        <v>18.541616837474873</v>
       </c>
     </row>
     <row r="452">
@@ -5047,7 +5047,7 @@
         <v>1.5</v>
       </c>
       <c r="C452" s="0">
-        <v>18.538401378214029</v>
+        <v>18.536913099191768</v>
       </c>
     </row>
     <row r="453">
@@ -5058,7 +5058,7 @@
         <v>1.5</v>
       </c>
       <c r="C453" s="0">
-        <v>18.52955693178362</v>
+        <v>18.530347220119317</v>
       </c>
     </row>
     <row r="454">
@@ -5069,7 +5069,7 @@
         <v>1.5</v>
       </c>
       <c r="C454" s="0">
-        <v>18.517373701985619</v>
+        <v>18.515535383746382</v>
       </c>
     </row>
     <row r="455">
@@ -5080,7 +5080,7 @@
         <v>1.5</v>
       </c>
       <c r="C455" s="0">
-        <v>18.503717120377992</v>
+        <v>18.505725596165956</v>
       </c>
     </row>
     <row r="456">
@@ -5091,7 +5091,7 @@
         <v>1.5</v>
       </c>
       <c r="C456" s="0">
-        <v>18.49414476412856</v>
+        <v>18.496755152069259</v>
       </c>
     </row>
     <row r="457">
@@ -5102,7 +5102,7 @@
         <v>1.5</v>
       </c>
       <c r="C457" s="0">
-        <v>18.486336920975454</v>
+        <v>18.487088718066271</v>
       </c>
     </row>
     <row r="458">
@@ -5113,7 +5113,7 @@
         <v>1.5</v>
       </c>
       <c r="C458" s="0">
-        <v>18.480755164743972</v>
+        <v>18.47596158851896</v>
       </c>
     </row>
     <row r="459">
@@ -5124,7 +5124,7 @@
         <v>1.5</v>
       </c>
       <c r="C459" s="0">
-        <v>18.468651279331961</v>
+        <v>18.4681729935098</v>
       </c>
     </row>
     <row r="460">
@@ -5135,7 +5135,7 @@
         <v>1.5</v>
       </c>
       <c r="C460" s="0">
-        <v>18.455429058350969</v>
+        <v>18.460332901627517</v>
       </c>
     </row>
     <row r="461">
@@ -5146,7 +5146,7 @@
         <v>1.5</v>
       </c>
       <c r="C461" s="0">
-        <v>18.451513111152476</v>
+        <v>18.449315883591225</v>
       </c>
     </row>
     <row r="462">
@@ -5157,7 +5157,7 @@
         <v>1.5</v>
       </c>
       <c r="C462" s="0">
-        <v>18.444233170249568</v>
+        <v>18.44372877786855</v>
       </c>
     </row>
     <row r="463">
@@ -5168,7 +5168,7 @@
         <v>1.5</v>
       </c>
       <c r="C463" s="0">
-        <v>18.439093068822469</v>
+        <v>18.441788893228516</v>
       </c>
     </row>
     <row r="464">
@@ -5179,7 +5179,7 @@
         <v>1.5</v>
       </c>
       <c r="C464" s="0">
-        <v>18.439851006515987</v>
+        <v>18.437509454465946</v>
       </c>
     </row>
     <row r="465">
@@ -5190,7 +5190,7 @@
         <v>1.5</v>
       </c>
       <c r="C465" s="0">
-        <v>18.431288567733798</v>
+        <v>18.430895704498692</v>
       </c>
     </row>
     <row r="466">
@@ -5201,7 +5201,7 @@
         <v>1.5</v>
       </c>
       <c r="C466" s="0">
-        <v>18.424645485927321</v>
+        <v>18.423148485196048</v>
       </c>
     </row>
     <row r="467">
@@ -5212,7 +5212,7 @@
         <v>1.5</v>
       </c>
       <c r="C467" s="0">
-        <v>18.416508475176965</v>
+        <v>18.417625305404574</v>
       </c>
     </row>
     <row r="468">
@@ -5223,7 +5223,7 @@
         <v>1.5</v>
       </c>
       <c r="C468" s="0">
-        <v>18.405185502005679</v>
+        <v>18.407830077397396</v>
       </c>
     </row>
     <row r="469">
@@ -5234,7 +5234,7 @@
         <v>1.5</v>
       </c>
       <c r="C469" s="0">
-        <v>18.398913796578064</v>
+        <v>18.396212263361104</v>
       </c>
     </row>
     <row r="470">
@@ -5245,7 +5245,7 @@
         <v>1.5</v>
       </c>
       <c r="C470" s="0">
-        <v>18.388034168918104</v>
+        <v>18.387242634571727</v>
       </c>
     </row>
     <row r="471">
@@ -5256,7 +5256,7 @@
         <v>1.5</v>
       </c>
       <c r="C471" s="0">
-        <v>18.374750906338559</v>
+        <v>18.373796575657792</v>
       </c>
     </row>
     <row r="472">
@@ -5267,7 +5267,7 @@
         <v>1.5</v>
       </c>
       <c r="C472" s="0">
-        <v>18.360974750128864</v>
+        <v>18.36378112310911</v>
       </c>
     </row>
     <row r="473">
@@ -5278,7 +5278,7 @@
         <v>1.5</v>
       </c>
       <c r="C473" s="0">
-        <v>18.357767663114203</v>
+        <v>18.360794445857572</v>
       </c>
     </row>
     <row r="474">
@@ -5289,7 +5289,7 @@
         <v>1.5</v>
       </c>
       <c r="C474" s="0">
-        <v>18.361386020272587</v>
+        <v>18.363424149819096</v>
       </c>
     </row>
     <row r="475">
@@ -5300,7 +5300,7 @@
         <v>1.5</v>
       </c>
       <c r="C475" s="0">
-        <v>18.368355045660316</v>
+        <v>18.361084049092796</v>
       </c>
     </row>
     <row r="476">
@@ -5311,7 +5311,7 @@
         <v>1.5</v>
       </c>
       <c r="C476" s="0">
-        <v>18.363531649402951</v>
+        <v>18.360176038499883</v>
       </c>
     </row>
     <row r="477">
@@ -5322,7 +5322,7 @@
         <v>1.5</v>
       </c>
       <c r="C477" s="0">
-        <v>18.35302046407714</v>
+        <v>18.358708100995351</v>
       </c>
     </row>
     <row r="478">
@@ -5333,7 +5333,7 @@
         <v>1.5</v>
       </c>
       <c r="C478" s="0">
-        <v>18.34815599990884</v>
+        <v>18.349331787401923</v>
       </c>
     </row>
     <row r="479">
@@ -5344,7 +5344,7 @@
         <v>1.5</v>
       </c>
       <c r="C479" s="0">
-        <v>18.342711737079384</v>
+        <v>18.33930075996447</v>
       </c>
     </row>
     <row r="480">
@@ -5355,7 +5355,7 @@
         <v>1.5</v>
       </c>
       <c r="C480" s="0">
-        <v>18.336250850734316</v>
+        <v>18.336387848391766</v>
       </c>
     </row>
     <row r="481">
@@ -5366,7 +5366,7 @@
         <v>1.5</v>
       </c>
       <c r="C481" s="0">
-        <v>18.33009725816823</v>
+        <v>18.334513211928257</v>
       </c>
     </row>
     <row r="482">
@@ -5377,7 +5377,7 @@
         <v>1.5</v>
       </c>
       <c r="C482" s="0">
-        <v>18.327728878000972</v>
+        <v>18.330446686651793</v>
       </c>
     </row>
     <row r="483">
@@ -5388,7 +5388,7 @@
         <v>1.5</v>
       </c>
       <c r="C483" s="0">
-        <v>18.330405617288015</v>
+        <v>18.325219018534458</v>
       </c>
     </row>
     <row r="484">
@@ -5399,7 +5399,7 @@
         <v>1.5</v>
       </c>
       <c r="C484" s="0">
-        <v>18.323255480001922</v>
+        <v>18.317934943767373</v>
       </c>
     </row>
     <row r="485">
@@ -5410,7 +5410,7 @@
         <v>1.5</v>
       </c>
       <c r="C485" s="0">
-        <v>18.305170232296856</v>
+        <v>18.309885079911218</v>
       </c>
     </row>
     <row r="486">
@@ -5421,7 +5421,7 @@
         <v>1.5</v>
       </c>
       <c r="C486" s="0">
-        <v>18.296557981569496</v>
+        <v>18.29588145019985</v>
       </c>
     </row>
     <row r="487">
@@ -5432,7 +5432,7 @@
         <v>1.5</v>
       </c>
       <c r="C487" s="0">
-        <v>18.286707394693217</v>
+        <v>18.290370224436991</v>
       </c>
     </row>
     <row r="488">
@@ -5443,7 +5443,7 @@
         <v>1.5</v>
       </c>
       <c r="C488" s="0">
-        <v>18.287329349317893</v>
+        <v>18.285208200913882</v>
       </c>
     </row>
     <row r="489">
@@ -5454,7 +5454,7 @@
         <v>1.5</v>
       </c>
       <c r="C489" s="0">
-        <v>18.284463413003873</v>
+        <v>18.279551604937538</v>
       </c>
     </row>
     <row r="490">
@@ -5465,7 +5465,7 @@
         <v>1.5</v>
       </c>
       <c r="C490" s="0">
-        <v>18.271067995178871</v>
+        <v>18.272866762331855</v>
       </c>
     </row>
     <row r="491">
@@ -5476,7 +5476,7 @@
         <v>1.5</v>
       </c>
       <c r="C491" s="0">
-        <v>18.263900449315543</v>
+        <v>18.268701724580424</v>
       </c>
     </row>
     <row r="492">
@@ -5487,7 +5487,7 @@
         <v>1.5</v>
       </c>
       <c r="C492" s="0">
-        <v>18.265139526238137</v>
+        <v>18.265713157287387</v>
       </c>
     </row>
     <row r="493">
@@ -5498,7 +5498,7 @@
         <v>1.5</v>
       </c>
       <c r="C493" s="0">
-        <v>18.263493781211693</v>
+        <v>18.258576845074966</v>
       </c>
     </row>
     <row r="494">
@@ -5509,7 +5509,7 @@
         <v>1.5</v>
       </c>
       <c r="C494" s="0">
-        <v>18.254781780358794</v>
+        <v>18.25244003141216</v>
       </c>
     </row>
     <row r="495">
@@ -5520,7 +5520,7 @@
         <v>1.5</v>
       </c>
       <c r="C495" s="0">
-        <v>18.242005765252603</v>
+        <v>18.244112755784165</v>
       </c>
     </row>
     <row r="496">
@@ -5531,7 +5531,7 @@
         <v>1.5</v>
       </c>
       <c r="C496" s="0">
-        <v>18.229129966481388</v>
+        <v>18.234373755831655</v>
       </c>
     </row>
     <row r="497">
@@ -5542,7 +5542,7 @@
         <v>1.5</v>
       </c>
       <c r="C497" s="0">
-        <v>18.230583901570114</v>
+        <v>18.227792980986649</v>
       </c>
     </row>
     <row r="498">
@@ -5553,7 +5553,7 @@
         <v>1.5</v>
       </c>
       <c r="C498" s="0">
-        <v>18.229727723556053</v>
+        <v>18.228465732595275</v>
       </c>
     </row>
     <row r="499">
@@ -5564,7 +5564,7 @@
         <v>1.5</v>
       </c>
       <c r="C499" s="0">
-        <v>18.225205413896131</v>
+        <v>18.226497098516013</v>
       </c>
     </row>
     <row r="500">
@@ -5575,7 +5575,7 @@
         <v>1.5</v>
       </c>
       <c r="C500" s="0">
-        <v>18.220085757558071</v>
+        <v>18.217399947425925</v>
       </c>
     </row>
     <row r="501">
@@ -5586,7 +5586,7 @@
         <v>1.5</v>
       </c>
       <c r="C501" s="0">
-        <v>18.210493073739833</v>
+        <v>18.21047470832028</v>
       </c>
     </row>
     <row r="502">
@@ -5597,7 +5597,7 @@
         <v>1.5</v>
       </c>
       <c r="C502" s="0">
-        <v>18.198377001082534</v>
+        <v>18.201042543097046</v>
       </c>
     </row>
     <row r="503">
@@ -5608,7 +5608,7 @@
         <v>1.5</v>
       </c>
       <c r="C503" s="0">
-        <v>18.189780554583042</v>
+        <v>18.189251977157028</v>
       </c>
     </row>
     <row r="504">
@@ -5619,7 +5619,7 @@
         <v>1.5</v>
       </c>
       <c r="C504" s="0">
-        <v>18.181625168684466</v>
+        <v>18.183645546371867</v>
       </c>
     </row>
     <row r="505">
@@ -5630,7 +5630,7 @@
         <v>1.5</v>
       </c>
       <c r="C505" s="0">
-        <v>18.179782774791313</v>
+        <v>18.178612701434876</v>
       </c>
     </row>
     <row r="506">
@@ -5641,7 +5641,7 @@
         <v>1.5</v>
       </c>
       <c r="C506" s="0">
-        <v>18.173552587548823</v>
+        <v>18.17421435303973</v>
       </c>
     </row>
     <row r="507">
@@ -5652,7 +5652,7 @@
         <v>1.5</v>
       </c>
       <c r="C507" s="0">
-        <v>18.169178120202716</v>
+        <v>18.166997409773071</v>
       </c>
     </row>
     <row r="508">
@@ -5663,7 +5663,7 @@
         <v>1.5</v>
       </c>
       <c r="C508" s="0">
-        <v>18.16140863908997</v>
+        <v>18.162229212070276</v>
       </c>
     </row>
     <row r="509">
@@ -5674,7 +5674,7 @@
         <v>1.5</v>
       </c>
       <c r="C509" s="0">
-        <v>18.155489587085896</v>
+        <v>18.155908721385757</v>
       </c>
     </row>
     <row r="510">
@@ -5685,7 +5685,7 @@
         <v>1.5</v>
       </c>
       <c r="C510" s="0">
-        <v>18.148809662815417</v>
+        <v>18.151948036593577</v>
       </c>
     </row>
     <row r="511">
@@ -5696,7 +5696,7 @@
         <v>1.5</v>
       </c>
       <c r="C511" s="0">
-        <v>18.15123226101262</v>
+        <v>18.146252180951077</v>
       </c>
     </row>
     <row r="512">
@@ -5707,7 +5707,7 @@
         <v>1.5</v>
       </c>
       <c r="C512" s="0">
-        <v>18.144183953564244</v>
+        <v>18.147469221885061</v>
       </c>
     </row>
     <row r="513">
@@ -5718,7 +5718,7 @@
         <v>1.5</v>
       </c>
       <c r="C513" s="0">
-        <v>18.143839410093811</v>
+        <v>18.143751770894276</v>
       </c>
     </row>
     <row r="514">
@@ -5729,7 +5729,7 @@
         <v>1.5</v>
       </c>
       <c r="C514" s="0">
-        <v>18.142433064893329</v>
+        <v>18.142687806607242</v>
       </c>
     </row>
     <row r="515">
@@ -5740,7 +5740,7 @@
         <v>1.5</v>
       </c>
       <c r="C515" s="0">
-        <v>18.139136434584263</v>
+        <v>18.137984780628418</v>
       </c>
     </row>
     <row r="516">
@@ -5751,7 +5751,7 @@
         <v>1.5</v>
       </c>
       <c r="C516" s="0">
-        <v>18.132195602962959</v>
+        <v>18.131559673260288</v>
       </c>
     </row>
     <row r="517">
@@ -5762,7 +5762,7 @@
         <v>1.5</v>
       </c>
       <c r="C517" s="0">
-        <v>18.120927403731976</v>
+        <v>18.124805040748505</v>
       </c>
     </row>
     <row r="518">
@@ -5773,7 +5773,7 @@
         <v>1.5</v>
       </c>
       <c r="C518" s="0">
-        <v>18.114557830615411</v>
+        <v>18.108800414415715</v>
       </c>
     </row>
     <row r="519">
@@ -5784,7 +5784,7 @@
         <v>1.5</v>
       </c>
       <c r="C519" s="0">
-        <v>18.095566116531963</v>
+        <v>18.095383433303134</v>
       </c>
     </row>
     <row r="520">
@@ -5795,7 +5795,7 @@
         <v>1.5</v>
       </c>
       <c r="C520" s="0">
-        <v>18.081014317213864</v>
+        <v>18.081734714582129</v>
       </c>
     </row>
     <row r="521">
@@ -5806,7 +5806,7 @@
         <v>1.5</v>
       </c>
       <c r="C521" s="0">
-        <v>18.070761491030286</v>
+        <v>18.075975699053416</v>
       </c>
     </row>
     <row r="522">
@@ -5817,7 +5817,7 @@
         <v>1.5</v>
       </c>
       <c r="C522" s="0">
-        <v>18.070949642523228</v>
+        <v>18.070889078941207</v>
       </c>
     </row>
     <row r="523">
@@ -5828,7 +5828,7 @@
         <v>1.5</v>
       </c>
       <c r="C523" s="0">
-        <v>18.073315466823285</v>
+        <v>18.070849484995048</v>
       </c>
     </row>
     <row r="524">
@@ -5839,7 +5839,7 @@
         <v>1.5</v>
       </c>
       <c r="C524" s="0">
-        <v>18.074611397926521</v>
+        <v>18.073083931650157</v>
       </c>
     </row>
     <row r="525">
@@ -5850,7 +5850,7 @@
         <v>1.5</v>
       </c>
       <c r="C525" s="0">
-        <v>18.068744931081248</v>
+        <v>18.070650365357089</v>
       </c>
     </row>
     <row r="526">
@@ -5861,7 +5861,7 @@
         <v>1.5</v>
       </c>
       <c r="C526" s="0">
-        <v>18.064909098884623</v>
+        <v>18.064193448048417</v>
       </c>
     </row>
     <row r="527">
@@ -5872,7 +5872,7 @@
         <v>1.5</v>
       </c>
       <c r="C527" s="0">
-        <v>18.057108139248655</v>
+        <v>18.052894353834766</v>
       </c>
     </row>
     <row r="528">
@@ -5883,7 +5883,7 @@
         <v>1.5</v>
       </c>
       <c r="C528" s="0">
-        <v>18.041019563634396</v>
+        <v>18.042559752337496</v>
       </c>
     </row>
     <row r="529">
@@ -5894,7 +5894,7 @@
         <v>1.5</v>
       </c>
       <c r="C529" s="0">
-        <v>18.031475385041876</v>
+        <v>18.03507285214279</v>
       </c>
     </row>
     <row r="530">
@@ -5905,7 +5905,7 @@
         <v>1.5</v>
       </c>
       <c r="C530" s="0">
-        <v>18.029436950482282</v>
+        <v>18.030729232820427</v>
       </c>
     </row>
     <row r="531">
@@ -5916,7 +5916,7 @@
         <v>1.5</v>
       </c>
       <c r="C531" s="0">
-        <v>18.029551708603037</v>
+        <v>18.031366286924118</v>
       </c>
     </row>
     <row r="532">
@@ -5927,7 +5927,7 @@
         <v>1.5</v>
       </c>
       <c r="C532" s="0">
-        <v>18.037154446977866</v>
+        <v>18.030172003740322</v>
       </c>
     </row>
     <row r="533">
@@ -5938,7 +5938,7 @@
         <v>1.5</v>
       </c>
       <c r="C533" s="0">
-        <v>18.028541939818705</v>
+        <v>18.030129001097855</v>
       </c>
     </row>
     <row r="534">
@@ -5949,7 +5949,7 @@
         <v>1.5</v>
       </c>
       <c r="C534" s="0">
-        <v>18.02082240005544</v>
+        <v>18.022699243589479</v>
       </c>
     </row>
     <row r="535">
@@ -5960,7 +5960,7 @@
         <v>1.5</v>
       </c>
       <c r="C535" s="0">
-        <v>18.01446914112536</v>
+        <v>18.013910368791155</v>
       </c>
     </row>
     <row r="536">
@@ -5971,7 +5971,7 @@
         <v>1.5</v>
       </c>
       <c r="C536" s="0">
-        <v>18.005024082538618</v>
+        <v>18.004416508835739</v>
       </c>
     </row>
     <row r="537">
@@ -5982,7 +5982,7 @@
         <v>1.5</v>
       </c>
       <c r="C537" s="0">
-        <v>17.993772202511828</v>
+        <v>17.993633370039042</v>
       </c>
     </row>
     <row r="538">
@@ -5993,7 +5993,7 @@
         <v>1.5</v>
       </c>
       <c r="C538" s="0">
-        <v>17.984153613534868</v>
+        <v>17.986442033579799</v>
       </c>
     </row>
     <row r="539">
@@ -6004,7 +6004,7 @@
         <v>1.5</v>
       </c>
       <c r="C539" s="0">
-        <v>17.978430788909165</v>
+        <v>17.979371646420915</v>
       </c>
     </row>
     <row r="540">
@@ -6015,7 +6015,7 @@
         <v>1.5</v>
       </c>
       <c r="C540" s="0">
-        <v>17.976675415718617</v>
+        <v>17.976137249218453</v>
       </c>
     </row>
     <row r="541">
@@ -6026,7 +6026,7 @@
         <v>1.5</v>
       </c>
       <c r="C541" s="0">
-        <v>17.97556838031516</v>
+        <v>17.97444502095216</v>
       </c>
     </row>
     <row r="542">
@@ -6037,7 +6037,7 @@
         <v>1.5</v>
       </c>
       <c r="C542" s="0">
-        <v>17.970806594507131</v>
+        <v>17.967871189774442</v>
       </c>
     </row>
     <row r="543">
@@ -6048,7 +6048,7 @@
         <v>1.5</v>
       </c>
       <c r="C543" s="0">
-        <v>17.961592840054127</v>
+        <v>17.962875305728861</v>
       </c>
     </row>
     <row r="544">
@@ -6059,7 +6059,7 @@
         <v>1.5</v>
       </c>
       <c r="C544" s="0">
-        <v>17.953785482827431</v>
+        <v>17.955016043208648</v>
       </c>
     </row>
     <row r="545">
@@ -6070,7 +6070,7 @@
         <v>1.5</v>
       </c>
       <c r="C545" s="0">
-        <v>17.944202570883391</v>
+        <v>17.946537262529521</v>
       </c>
     </row>
     <row r="546">
@@ -6081,7 +6081,7 @@
         <v>1.5</v>
       </c>
       <c r="C546" s="0">
-        <v>17.939443016903613</v>
+        <v>17.934984958015939</v>
       </c>
     </row>
     <row r="547">
@@ -6092,7 +6092,7 @@
         <v>1.5</v>
       </c>
       <c r="C547" s="0">
-        <v>17.930026472424988</v>
+        <v>17.931259103242031</v>
       </c>
     </row>
     <row r="548">
@@ -6103,7 +6103,7 @@
         <v>1.5</v>
       </c>
       <c r="C548" s="0">
-        <v>17.925274562542779</v>
+        <v>17.931186269708572</v>
       </c>
     </row>
     <row r="549">
@@ -6114,7 +6114,7 @@
         <v>1.5</v>
       </c>
       <c r="C549" s="0">
-        <v>17.930128923931576</v>
+        <v>17.926954754541892</v>
       </c>
     </row>
     <row r="550">
@@ -6125,7 +6125,7 @@
         <v>1.5</v>
       </c>
       <c r="C550" s="0">
-        <v>17.926316968943262</v>
+        <v>17.92313593858016</v>
       </c>
     </row>
     <row r="551">
@@ -6136,7 +6136,7 @@
         <v>1.5</v>
       </c>
       <c r="C551" s="0">
-        <v>17.919101405893343</v>
+        <v>17.914815786394925</v>
       </c>
     </row>
     <row r="552">
@@ -6147,7 +6147,7 @@
         <v>1.5</v>
       </c>
       <c r="C552" s="0">
-        <v>17.901671956001898</v>
+        <v>17.909003456565539</v>
       </c>
     </row>
     <row r="553">
@@ -6158,7 +6158,7 @@
         <v>1.5</v>
       </c>
       <c r="C553" s="0">
-        <v>17.895354797705807</v>
+        <v>17.899237399206378</v>
       </c>
     </row>
     <row r="554">
@@ -6169,7 +6169,7 @@
         <v>1.5</v>
       </c>
       <c r="C554" s="0">
-        <v>17.897041847004122</v>
+        <v>17.89433960570722</v>
       </c>
     </row>
     <row r="555">
@@ -6180,7 +6180,7 @@
         <v>1.5</v>
       </c>
       <c r="C555" s="0">
-        <v>17.896849578077241</v>
+        <v>17.895204855410881</v>
       </c>
     </row>
     <row r="556">
@@ -6191,7 +6191,7 @@
         <v>1.5</v>
       </c>
       <c r="C556" s="0">
-        <v>17.893097569504445</v>
+        <v>17.891380572691666</v>
       </c>
     </row>
     <row r="557">
@@ -6202,7 +6202,7 @@
         <v>1.5</v>
       </c>
       <c r="C557" s="0">
-        <v>17.88344598770971</v>
+        <v>17.88626699849571</v>
       </c>
     </row>
     <row r="558">
@@ -6213,7 +6213,7 @@
         <v>1.5</v>
       </c>
       <c r="C558" s="0">
-        <v>17.878720145137763</v>
+        <v>17.875734086909858</v>
       </c>
     </row>
     <row r="559">
@@ -6224,7 +6224,7 @@
         <v>1.5</v>
       </c>
       <c r="C559" s="0">
-        <v>17.865877085921586</v>
+        <v>17.867453023812004</v>
       </c>
     </row>
     <row r="560">
@@ -6235,7 +6235,7 @@
         <v>1.5</v>
       </c>
       <c r="C560" s="0">
-        <v>17.857558977269658</v>
+        <v>17.855958836115054</v>
       </c>
     </row>
     <row r="561">
@@ -6246,7 +6246,7 @@
         <v>1.5</v>
       </c>
       <c r="C561" s="0">
-        <v>17.84751984012388</v>
+        <v>17.851130967193644</v>
       </c>
     </row>
     <row r="562">
@@ -6257,7 +6257,7 @@
         <v>1.5</v>
       </c>
       <c r="C562" s="0">
-        <v>17.846537192370629</v>
+        <v>17.847737022867072</v>
       </c>
     </row>
     <row r="563">
@@ -6268,7 +6268,7 @@
         <v>1.5</v>
       </c>
       <c r="C563" s="0">
-        <v>17.848351882649194</v>
+        <v>17.846672398896853</v>
       </c>
     </row>
     <row r="564">
@@ -6279,7 +6279,7 @@
         <v>1.5</v>
       </c>
       <c r="C564" s="0">
-        <v>17.847567168826707</v>
+        <v>17.846187158773404</v>
       </c>
     </row>
     <row r="565">
@@ -6290,7 +6290,7 @@
         <v>1.5</v>
       </c>
       <c r="C565" s="0">
-        <v>17.844273122378432</v>
+        <v>17.84356028939429</v>
       </c>
     </row>
     <row r="566">
@@ -6301,7 +6301,7 @@
         <v>1.5</v>
       </c>
       <c r="C566" s="0">
-        <v>17.837035300730474</v>
+        <v>17.838188999235896</v>
       </c>
     </row>
     <row r="567">
@@ -6312,7 +6312,7 @@
         <v>1.5</v>
       </c>
       <c r="C567" s="0">
-        <v>17.831425503640922</v>
+        <v>17.830535436951283</v>
       </c>
     </row>
     <row r="568">
@@ -6323,7 +6323,7 @@
         <v>1.5</v>
       </c>
       <c r="C568" s="0">
-        <v>17.824192783956043</v>
+        <v>17.823615952099917</v>
       </c>
     </row>
     <row r="569">
@@ -6334,7 +6334,7 @@
         <v>1.5</v>
       </c>
       <c r="C569" s="0">
-        <v>17.813838392817463</v>
+        <v>17.811360971360351</v>
       </c>
     </row>
     <row r="570">
@@ -6345,7 +6345,7 @@
         <v>1.5</v>
       </c>
       <c r="C570" s="0">
-        <v>17.797949550382082</v>
+        <v>17.800063323587448</v>
       </c>
     </row>
     <row r="571">
@@ -6356,7 +6356,7 @@
         <v>1.5</v>
       </c>
       <c r="C571" s="0">
-        <v>17.788765803996785</v>
+        <v>17.791287366391831</v>
       </c>
     </row>
     <row r="572">
@@ -6367,7 +6367,7 @@
         <v>1.5</v>
       </c>
       <c r="C572" s="0">
-        <v>17.784013717702173</v>
+        <v>17.786776060067492</v>
       </c>
     </row>
     <row r="573">
@@ -6378,7 +6378,7 @@
         <v>1.5</v>
       </c>
       <c r="C573" s="0">
-        <v>17.783811420205197</v>
+        <v>17.782257213490034</v>
       </c>
     </row>
     <row r="574">
@@ -6389,7 +6389,7 @@
         <v>1.5</v>
       </c>
       <c r="C574" s="0">
-        <v>17.784852652195518</v>
+        <v>17.782707794695703</v>
       </c>
     </row>
     <row r="575">
@@ -6400,7 +6400,7 @@
         <v>1.5</v>
       </c>
       <c r="C575" s="0">
-        <v>17.783261645985348</v>
+        <v>17.784167328337137</v>
       </c>
     </row>
     <row r="576">
@@ -6411,7 +6411,7 @@
         <v>1.5</v>
       </c>
       <c r="C576" s="0">
-        <v>17.779063747653986</v>
+        <v>17.779656049602902</v>
       </c>
     </row>
     <row r="577">
@@ -6422,7 +6422,7 @@
         <v>1.5</v>
       </c>
       <c r="C577" s="0">
-        <v>17.776440303136738</v>
+        <v>17.770172593192704</v>
       </c>
     </row>
     <row r="578">
@@ -6433,7 +6433,7 @@
         <v>1.5</v>
       </c>
       <c r="C578" s="0">
-        <v>17.765011681644161</v>
+        <v>17.769617767089958</v>
       </c>
     </row>
     <row r="579">
@@ -6444,7 +6444,7 @@
         <v>1.5</v>
       </c>
       <c r="C579" s="0">
-        <v>17.762702453244309</v>
+        <v>17.76560563772588</v>
       </c>
     </row>
     <row r="580">
@@ -6455,7 +6455,7 @@
         <v>1.5</v>
       </c>
       <c r="C580" s="0">
-        <v>17.761583540373628</v>
+        <v>17.761353889582644</v>
       </c>
     </row>
     <row r="581">
@@ -6466,7 +6466,7 @@
         <v>1.5</v>
       </c>
       <c r="C581" s="0">
-        <v>17.762747501790333</v>
+        <v>17.760519848675322</v>
       </c>
     </row>
     <row r="582">
@@ -6477,7 +6477,7 @@
         <v>1.5</v>
       </c>
       <c r="C582" s="0">
-        <v>17.762256917366926</v>
+        <v>17.76055819235031</v>
       </c>
     </row>
     <row r="583">
@@ -6488,7 +6488,7 @@
         <v>1.5</v>
       </c>
       <c r="C583" s="0">
-        <v>17.753700972040296</v>
+        <v>17.757982483085215</v>
       </c>
     </row>
     <row r="584">
@@ -6499,7 +6499,7 @@
         <v>1.5</v>
       </c>
       <c r="C584" s="0">
-        <v>17.752740600579145</v>
+        <v>17.746624497612963</v>
       </c>
     </row>
     <row r="585">
@@ -6510,7 +6510,7 @@
         <v>1.5</v>
       </c>
       <c r="C585" s="0">
-        <v>17.741075163385489</v>
+        <v>17.740999518526447</v>
       </c>
     </row>
     <row r="586">
@@ -6521,7 +6521,7 @@
         <v>1.5</v>
       </c>
       <c r="C586" s="0">
-        <v>17.728924890488962</v>
+        <v>17.735151547092055</v>
       </c>
     </row>
     <row r="587">
@@ -6532,7 +6532,7 @@
         <v>1.5</v>
       </c>
       <c r="C587" s="0">
-        <v>17.726971594723551</v>
+        <v>17.726076685360301</v>
       </c>
     </row>
     <row r="588">
@@ -6543,7 +6543,7 @@
         <v>1.5</v>
       </c>
       <c r="C588" s="0">
-        <v>17.722514607039905</v>
+        <v>17.719830572694779</v>
       </c>
     </row>
     <row r="589">
@@ -6554,7 +6554,7 @@
         <v>1.5</v>
       </c>
       <c r="C589" s="0">
-        <v>17.717113960858153</v>
+        <v>17.716178973983666</v>
       </c>
     </row>
     <row r="590">
@@ -6565,7 +6565,7 @@
         <v>1.5</v>
       </c>
       <c r="C590" s="0">
-        <v>17.712801644026328</v>
+        <v>17.714288283043562</v>
       </c>
     </row>
     <row r="591">
@@ -6576,7 +6576,7 @@
         <v>1.5</v>
       </c>
       <c r="C591" s="0">
-        <v>17.707617081390321</v>
+        <v>17.708880916956076</v>
       </c>
     </row>
     <row r="592">
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="C592" s="0">
-        <v>17.705574092855304</v>
+        <v>17.702758812812689</v>
       </c>
     </row>
     <row r="593">
@@ -6598,7 +6598,7 @@
         <v>1.5</v>
       </c>
       <c r="C593" s="0">
-        <v>17.700315096594903</v>
+        <v>17.701166582248188</v>
       </c>
     </row>
     <row r="594">
@@ -6609,7 +6609,7 @@
         <v>1.5</v>
       </c>
       <c r="C594" s="0">
-        <v>17.694607178025503</v>
+        <v>17.695704460137584</v>
       </c>
     </row>
     <row r="595">
@@ -6620,7 +6620,7 @@
         <v>1.5</v>
       </c>
       <c r="C595" s="0">
-        <v>17.69029854789612</v>
+        <v>17.689044226537508</v>
       </c>
     </row>
     <row r="596">
@@ -6631,7 +6631,7 @@
         <v>1.5</v>
       </c>
       <c r="C596" s="0">
-        <v>17.684643396707902</v>
+        <v>17.685705152433059</v>
       </c>
     </row>
     <row r="597">
@@ -6642,7 +6642,7 @@
         <v>1.5</v>
       </c>
       <c r="C597" s="0">
-        <v>17.681964242049762</v>
+        <v>17.680102889511662</v>
       </c>
     </row>
     <row r="598">
@@ -6653,7 +6653,7 @@
         <v>1.5</v>
       </c>
       <c r="C598" s="0">
-        <v>17.67465480409415</v>
+        <v>17.674960942381315</v>
       </c>
     </row>
     <row r="599">
@@ -6664,7 +6664,7 @@
         <v>1.5</v>
       </c>
       <c r="C599" s="0">
-        <v>17.669143772601021</v>
+        <v>17.670694676969649</v>
       </c>
     </row>
     <row r="600">
@@ -6675,7 +6675,7 @@
         <v>1.5</v>
       </c>
       <c r="C600" s="0">
-        <v>17.667126502512811</v>
+        <v>17.666664433308437</v>
       </c>
     </row>
     <row r="601">
@@ -6686,7 +6686,7 @@
         <v>1.5</v>
       </c>
       <c r="C601" s="0">
-        <v>17.664704617623858</v>
+        <v>17.664934501217445</v>
       </c>
     </row>
     <row r="602">
@@ -6697,7 +6697,7 @@
         <v>1.5</v>
       </c>
       <c r="C602" s="0">
-        <v>17.663464657582857</v>
+        <v>17.66312324024274</v>
       </c>
     </row>
     <row r="603">
@@ -6708,7 +6708,7 @@
         <v>1.5</v>
       </c>
       <c r="C603" s="0">
-        <v>17.660486847015608</v>
+        <v>17.65917532638592</v>
       </c>
     </row>
     <row r="604">
@@ -6719,7 +6719,7 @@
         <v>1.5</v>
       </c>
       <c r="C604" s="0">
-        <v>17.65467023357769</v>
+        <v>17.657309767623602</v>
       </c>
     </row>
     <row r="605">
@@ -6730,7 +6730,7 @@
         <v>1.5</v>
       </c>
       <c r="C605" s="0">
-        <v>17.655010377037424</v>
+        <v>17.65190403470983</v>
       </c>
     </row>
     <row r="606">
@@ -6741,7 +6741,7 @@
         <v>1.5</v>
       </c>
       <c r="C606" s="0">
-        <v>17.645167358728848</v>
+        <v>17.647340326877128</v>
       </c>
     </row>
     <row r="607">
@@ -6752,7 +6752,7 @@
         <v>1.5</v>
       </c>
       <c r="C607" s="0">
-        <v>17.642271767700141</v>
+        <v>17.642322992372051</v>
       </c>
     </row>
     <row r="608">
@@ -6763,7 +6763,7 @@
         <v>1.5</v>
       </c>
       <c r="C608" s="0">
-        <v>17.637937386376741</v>
+        <v>17.636305605596135</v>
       </c>
     </row>
     <row r="609">
@@ -6774,7 +6774,7 @@
         <v>1.5</v>
       </c>
       <c r="C609" s="0">
-        <v>17.627844816870056</v>
+        <v>17.630670719346202</v>
       </c>
     </row>
     <row r="610">
@@ -6785,7 +6785,7 @@
         <v>1.5</v>
       </c>
       <c r="C610" s="0">
-        <v>17.626162631853429</v>
+        <v>17.624963499223433</v>
       </c>
     </row>
     <row r="611">
@@ -6796,7 +6796,7 @@
         <v>1.5</v>
       </c>
       <c r="C611" s="0">
-        <v>17.622188674022269</v>
+        <v>17.62407859745468</v>
       </c>
     </row>
     <row r="612">
@@ -6807,7 +6807,7 @@
         <v>1.5</v>
       </c>
       <c r="C612" s="0">
-        <v>17.61883217494027</v>
+        <v>17.615618682243021</v>
       </c>
     </row>
     <row r="613">
@@ -6818,7 +6818,7 @@
         <v>1.5</v>
       </c>
       <c r="C613" s="0">
-        <v>17.613037348963051</v>
+        <v>17.612367372711926</v>
       </c>
     </row>
     <row r="614">
@@ -6829,7 +6829,7 @@
         <v>1.5</v>
       </c>
       <c r="C614" s="0">
-        <v>17.608742470286593</v>
+        <v>17.613355176099997</v>
       </c>
     </row>
     <row r="615">
@@ -6840,7 +6840,7 @@
         <v>1.5</v>
       </c>
       <c r="C615" s="0">
-        <v>17.612265818534961</v>
+        <v>17.614546941147786</v>
       </c>
     </row>
     <row r="616">
@@ -6851,7 +6851,7 @@
         <v>1.5</v>
       </c>
       <c r="C616" s="0">
-        <v>17.617323485982098</v>
+        <v>17.615840301483843</v>
       </c>
     </row>
     <row r="617">
@@ -6862,7 +6862,7 @@
         <v>1.5</v>
       </c>
       <c r="C617" s="0">
-        <v>17.617438126318525</v>
+        <v>17.610251519243011</v>
       </c>
     </row>
     <row r="618">
@@ -6873,7 +6873,7 @@
         <v>1.5</v>
       </c>
       <c r="C618" s="0">
-        <v>17.604081496247662</v>
+        <v>17.604414984263041</v>
       </c>
     </row>
     <row r="619">
@@ -6884,7 +6884,7 @@
         <v>1.5</v>
       </c>
       <c r="C619" s="0">
-        <v>17.587630502202025</v>
+        <v>17.5902627830874</v>
       </c>
     </row>
     <row r="620">
@@ -6895,7 +6895,7 @@
         <v>1.5</v>
       </c>
       <c r="C620" s="0">
-        <v>17.576940306345428</v>
+        <v>17.58059471543088</v>
       </c>
     </row>
     <row r="621">
@@ -6906,7 +6906,7 @@
         <v>1.5</v>
       </c>
       <c r="C621" s="0">
-        <v>17.573762324473289</v>
+        <v>17.572899891478809</v>
       </c>
     </row>
     <row r="622">
@@ -6917,7 +6917,7 @@
         <v>1.5</v>
       </c>
       <c r="C622" s="0">
-        <v>17.573543783301968</v>
+        <v>17.570065956274345</v>
       </c>
     </row>
     <row r="623">
@@ -6928,7 +6928,7 @@
         <v>1.5</v>
       </c>
       <c r="C623" s="0">
-        <v>17.569388308457736</v>
+        <v>17.572680947997409</v>
       </c>
     </row>
     <row r="624">
@@ -6939,7 +6939,7 @@
         <v>1.5</v>
       </c>
       <c r="C624" s="0">
-        <v>17.570839760304128</v>
+        <v>17.573125998388601</v>
       </c>
     </row>
     <row r="625">
@@ -6950,7 +6950,7 @@
         <v>1.5</v>
       </c>
       <c r="C625" s="0">
-        <v>17.573554660394624</v>
+        <v>17.571747495497902</v>
       </c>
     </row>
     <row r="626">
@@ -6961,7 +6961,7 @@
         <v>1.5</v>
       </c>
       <c r="C626" s="0">
-        <v>17.572832505634302</v>
+        <v>17.567415193552709</v>
       </c>
     </row>
     <row r="627">
@@ -6972,7 +6972,7 @@
         <v>1.5</v>
       </c>
       <c r="C627" s="0">
-        <v>17.562547997577873</v>
+        <v>17.564068961377934</v>
       </c>
     </row>
     <row r="628">
@@ -6983,7 +6983,7 @@
         <v>1.5</v>
       </c>
       <c r="C628" s="0">
-        <v>17.555325836756673</v>
+        <v>17.556831268680124</v>
       </c>
     </row>
     <row r="629">
@@ -6994,7 +6994,7 @@
         <v>1.5</v>
       </c>
       <c r="C629" s="0">
-        <v>17.548321391296003</v>
+        <v>17.553916249144155</v>
       </c>
     </row>
     <row r="630">
@@ -7005,7 +7005,7 @@
         <v>1.5</v>
       </c>
       <c r="C630" s="0">
-        <v>17.552415423916511</v>
+        <v>17.548297252150142</v>
       </c>
     </row>
     <row r="631">
@@ -7016,7 +7016,7 @@
         <v>1.5</v>
       </c>
       <c r="C631" s="0">
-        <v>17.548598640298714</v>
+        <v>17.544217198450255</v>
       </c>
     </row>
     <row r="632">
@@ -7027,7 +7027,7 @@
         <v>1.5</v>
       </c>
       <c r="C632" s="0">
-        <v>17.536504018915007</v>
+        <v>17.53544032926203</v>
       </c>
     </row>
     <row r="633">
@@ -7038,7 +7038,7 @@
         <v>1.5</v>
       </c>
       <c r="C633" s="0">
-        <v>17.523506400508936</v>
+        <v>17.526453758794549</v>
       </c>
     </row>
     <row r="634">
@@ -7049,7 +7049,7 @@
         <v>1.5</v>
       </c>
       <c r="C634" s="0">
-        <v>17.517551112128388</v>
+        <v>17.522347980489549</v>
       </c>
     </row>
     <row r="635">
@@ -7060,7 +7060,7 @@
         <v>1.5</v>
       </c>
       <c r="C635" s="0">
-        <v>17.522366865608632</v>
+        <v>17.519221789242206</v>
       </c>
     </row>
     <row r="636">
@@ -7071,7 +7071,7 @@
         <v>1.5</v>
       </c>
       <c r="C636" s="0">
-        <v>17.522691311268947</v>
+        <v>17.521537112223477</v>
       </c>
     </row>
     <row r="637">
@@ -7082,7 +7082,7 @@
         <v>1.5</v>
       </c>
       <c r="C637" s="0">
-        <v>17.521382236120772</v>
+        <v>17.521170062070958</v>
       </c>
     </row>
     <row r="638">
@@ -7093,7 +7093,7 @@
         <v>1.5</v>
       </c>
       <c r="C638" s="0">
-        <v>17.517996312610926</v>
+        <v>17.520154438749977</v>
       </c>
     </row>
     <row r="639">
@@ -7104,7 +7104,7 @@
         <v>1.5</v>
       </c>
       <c r="C639" s="0">
-        <v>17.515363858648559</v>
+        <v>17.515460285425952</v>
       </c>
     </row>
     <row r="640">
@@ -7115,7 +7115,7 @@
         <v>1.5</v>
       </c>
       <c r="C640" s="0">
-        <v>17.51040144835644</v>
+        <v>17.505975282291029</v>
       </c>
     </row>
     <row r="641">
@@ -7126,7 +7126,7 @@
         <v>1.5</v>
       </c>
       <c r="C641" s="0">
-        <v>17.499707364824591</v>
+        <v>17.501239504789687</v>
       </c>
     </row>
     <row r="642">
@@ -7137,7 +7137,7 @@
         <v>1.5</v>
       </c>
       <c r="C642" s="0">
-        <v>17.494356061563387</v>
+        <v>17.495574185544911</v>
       </c>
     </row>
     <row r="643">
@@ -7148,7 +7148,7 @@
         <v>1.5</v>
       </c>
       <c r="C643" s="0">
-        <v>17.488942573984339</v>
+        <v>17.492677674084717</v>
       </c>
     </row>
     <row r="644">
@@ -7159,7 +7159,7 @@
         <v>1.5</v>
       </c>
       <c r="C644" s="0">
-        <v>17.491097651478118</v>
+        <v>17.48862888804004</v>
       </c>
     </row>
     <row r="645">
@@ -7170,7 +7170,7 @@
         <v>1.5</v>
       </c>
       <c r="C645" s="0">
-        <v>17.48903643198825</v>
+        <v>17.487063273440654</v>
       </c>
     </row>
     <row r="646">
@@ -7181,7 +7181,7 @@
         <v>1.5</v>
       </c>
       <c r="C646" s="0">
-        <v>17.484460587500333</v>
+        <v>17.482225558853745</v>
       </c>
     </row>
     <row r="647">
@@ -7192,7 +7192,7 @@
         <v>1.5</v>
       </c>
       <c r="C647" s="0">
-        <v>17.473247353675216</v>
+        <v>17.475295046361193</v>
       </c>
     </row>
     <row r="648">
@@ -7203,7 +7203,7 @@
         <v>1.5</v>
       </c>
       <c r="C648" s="0">
-        <v>17.467631235581159</v>
+        <v>17.467911668682902</v>
       </c>
     </row>
     <row r="649">
@@ -7214,7 +7214,7 @@
         <v>1.5</v>
       </c>
       <c r="C649" s="0">
-        <v>17.463347654429324</v>
+        <v>17.463826043063278</v>
       </c>
     </row>
     <row r="650">
@@ -7225,7 +7225,7 @@
         <v>1.5</v>
       </c>
       <c r="C650" s="0">
-        <v>17.459793519310573</v>
+        <v>17.459280843546267</v>
       </c>
     </row>
     <row r="651">
@@ -7236,7 +7236,7 @@
         <v>1.5</v>
       </c>
       <c r="C651" s="0">
-        <v>17.455277534088335</v>
+        <v>17.453264285352905</v>
       </c>
     </row>
     <row r="652">
@@ -7247,7 +7247,7 @@
         <v>1.5</v>
       </c>
       <c r="C652" s="0">
-        <v>17.447378545140065</v>
+        <v>17.447534312358197</v>
       </c>
     </row>
     <row r="653">
@@ -7258,7 +7258,7 @@
         <v>1.5</v>
       </c>
       <c r="C653" s="0">
-        <v>17.441122216906081</v>
+        <v>17.439502696831063</v>
       </c>
     </row>
     <row r="654">
@@ -7269,7 +7269,7 @@
         <v>1.5</v>
       </c>
       <c r="C654" s="0">
-        <v>17.431926720609251</v>
+        <v>17.437643287141299</v>
       </c>
     </row>
     <row r="655">
@@ -7280,7 +7280,7 @@
         <v>1.5</v>
       </c>
       <c r="C655" s="0">
-        <v>17.435294641866566</v>
+        <v>17.435057887674891</v>
       </c>
     </row>
     <row r="656">
@@ -7291,7 +7291,7 @@
         <v>1.5</v>
       </c>
       <c r="C656" s="0">
-        <v>17.438876566429297</v>
+        <v>17.43779709000755</v>
       </c>
     </row>
     <row r="657">
@@ -7302,7 +7302,7 @@
         <v>1.5</v>
       </c>
       <c r="C657" s="0">
-        <v>17.438865581323657</v>
+        <v>17.436857834791152</v>
       </c>
     </row>
     <row r="658">
@@ -7313,7 +7313,7 @@
         <v>1.5</v>
       </c>
       <c r="C658" s="0">
-        <v>17.432974065500819</v>
+        <v>17.430350011917092</v>
       </c>
     </row>
     <row r="659">
@@ -7324,7 +7324,7 @@
         <v>1.5</v>
       </c>
       <c r="C659" s="0">
-        <v>17.420028955931418</v>
+        <v>17.421896363655662</v>
       </c>
     </row>
     <row r="660">
@@ -7335,7 +7335,7 @@
         <v>1.5</v>
       </c>
       <c r="C660" s="0">
-        <v>17.408594627444593</v>
+        <v>17.410396475445125</v>
       </c>
     </row>
     <row r="661">
@@ -7346,7 +7346,7 @@
         <v>1.5</v>
       </c>
       <c r="C661" s="0">
-        <v>17.400475813845507</v>
+        <v>17.398670993260662</v>
       </c>
     </row>
     <row r="662">
@@ -7357,7 +7357,7 @@
         <v>1.5</v>
       </c>
       <c r="C662" s="0">
-        <v>17.390456224145382</v>
+        <v>17.392448267559455</v>
       </c>
     </row>
     <row r="663">
@@ -7368,7 +7368,7 @@
         <v>1.5</v>
       </c>
       <c r="C663" s="0">
-        <v>17.388693899830553</v>
+        <v>17.388845081148791</v>
       </c>
     </row>
     <row r="664">
@@ -7379,7 +7379,7 @@
         <v>1.5</v>
       </c>
       <c r="C664" s="0">
-        <v>17.385186210560303</v>
+        <v>17.38494765100879</v>
       </c>
     </row>
     <row r="665">
@@ -7390,7 +7390,7 @@
         <v>1.5</v>
       </c>
       <c r="C665" s="0">
-        <v>17.382636834694473</v>
+        <v>17.381722097591503</v>
       </c>
     </row>
     <row r="666">
@@ -7401,7 +7401,7 @@
         <v>1.5</v>
       </c>
       <c r="C666" s="0">
-        <v>17.379762496871525</v>
+        <v>17.381702636897707</v>
       </c>
     </row>
     <row r="667">
@@ -7412,7 +7412,7 @@
         <v>1.5</v>
       </c>
       <c r="C667" s="0">
-        <v>17.376199078181788</v>
+        <v>17.376582958493106</v>
       </c>
     </row>
     <row r="668">
@@ -7423,7 +7423,7 @@
         <v>1.5</v>
       </c>
       <c r="C668" s="0">
-        <v>17.372405844828329</v>
+        <v>17.370761660683133</v>
       </c>
     </row>
     <row r="669">
@@ -7434,7 +7434,7 @@
         <v>1.5</v>
       </c>
       <c r="C669" s="0">
-        <v>17.368708519348726</v>
+        <v>17.36915901265839</v>
       </c>
     </row>
     <row r="670">
@@ -7445,7 +7445,7 @@
         <v>1.5</v>
       </c>
       <c r="C670" s="0">
-        <v>17.363970947200215</v>
+        <v>17.36244181774688</v>
       </c>
     </row>
     <row r="671">
@@ -7456,7 +7456,7 @@
         <v>1.5</v>
       </c>
       <c r="C671" s="0">
-        <v>17.353975093420011</v>
+        <v>17.352361417473809</v>
       </c>
     </row>
     <row r="672">
@@ -7467,7 +7467,7 @@
         <v>1.5</v>
       </c>
       <c r="C672" s="0">
-        <v>17.346371338825204</v>
+        <v>17.347837026326797</v>
       </c>
     </row>
     <row r="673">
@@ -7478,7 +7478,7 @@
         <v>1.5</v>
       </c>
       <c r="C673" s="0">
-        <v>17.34383452257217</v>
+        <v>17.346473212562845</v>
       </c>
     </row>
     <row r="674">
@@ -7489,7 +7489,7 @@
         <v>1.5</v>
       </c>
       <c r="C674" s="0">
-        <v>17.343281099678904</v>
+        <v>17.342458096351017</v>
       </c>
     </row>
     <row r="675">
@@ -7500,7 +7500,7 @@
         <v>1.5</v>
       </c>
       <c r="C675" s="0">
-        <v>17.344276267167306</v>
+        <v>17.34313792685839</v>
       </c>
     </row>
     <row r="676">
@@ -7511,7 +7511,7 @@
         <v>1.5</v>
       </c>
       <c r="C676" s="0">
-        <v>17.344734702013696</v>
+        <v>17.34400816892984</v>
       </c>
     </row>
     <row r="677">
@@ -7522,7 +7522,7 @@
         <v>1.5</v>
       </c>
       <c r="C677" s="0">
-        <v>17.338991575435973</v>
+        <v>17.341265956957621</v>
       </c>
     </row>
     <row r="678">
@@ -7533,7 +7533,7 @@
         <v>1.5</v>
       </c>
       <c r="C678" s="0">
-        <v>17.332542749308697</v>
+        <v>17.327964035179836</v>
       </c>
     </row>
     <row r="679">
@@ -7544,7 +7544,7 @@
         <v>1.5</v>
       </c>
       <c r="C679" s="0">
-        <v>17.318530782526096</v>
+        <v>17.316401648045819</v>
       </c>
     </row>
     <row r="680">
@@ -7555,7 +7555,7 @@
         <v>1.5</v>
       </c>
       <c r="C680" s="0">
-        <v>17.305317443434539</v>
+        <v>17.309302489855458</v>
       </c>
     </row>
     <row r="681">
@@ -7566,7 +7566,7 @@
         <v>1.5</v>
       </c>
       <c r="C681" s="0">
-        <v>17.300786541328289</v>
+        <v>17.306587205656417</v>
       </c>
     </row>
     <row r="682">
@@ -7577,7 +7577,7 @@
         <v>1.5</v>
       </c>
       <c r="C682" s="0">
-        <v>17.307896204906921</v>
+        <v>17.308745775230665</v>
       </c>
     </row>
     <row r="683">
@@ -7588,7 +7588,7 @@
         <v>1.5</v>
       </c>
       <c r="C683" s="0">
-        <v>17.317239408567364</v>
+        <v>17.307578357922267</v>
       </c>
     </row>
     <row r="684">
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="C684" s="0">
-        <v>17.307440120729463</v>
+        <v>17.30579426271532</v>
       </c>
     </row>
     <row r="685">
@@ -7610,7 +7610,7 @@
         <v>1.5</v>
       </c>
       <c r="C685" s="0">
-        <v>17.295466042103353</v>
+        <v>17.299607482190137</v>
       </c>
     </row>
     <row r="686">
@@ -7621,7 +7621,7 @@
         <v>1.5</v>
       </c>
       <c r="C686" s="0">
-        <v>17.287154206391481</v>
+        <v>17.288978337151164</v>
       </c>
     </row>
     <row r="687">
@@ -7632,7 +7632,7 @@
         <v>1.5</v>
       </c>
       <c r="C687" s="0">
-        <v>17.283725906402601</v>
+        <v>17.284572371890391</v>
       </c>
     </row>
     <row r="688">
@@ -7643,7 +7643,7 @@
         <v>1.5</v>
       </c>
       <c r="C688" s="0">
-        <v>17.286267190273488</v>
+        <v>17.283301854873809</v>
       </c>
     </row>
     <row r="689">
@@ -7654,7 +7654,7 @@
         <v>1.5</v>
       </c>
       <c r="C689" s="0">
-        <v>17.283685233570949</v>
+        <v>17.285423027873062</v>
       </c>
     </row>
     <row r="690">
@@ -7665,7 +7665,7 @@
         <v>1.5</v>
       </c>
       <c r="C690" s="0">
-        <v>17.280313585205359</v>
+        <v>17.281202101545098</v>
       </c>
     </row>
     <row r="691">
@@ -7676,7 +7676,7 @@
         <v>1.5</v>
       </c>
       <c r="C691" s="0">
-        <v>17.276107553416843</v>
+        <v>17.266787333108585</v>
       </c>
     </row>
     <row r="692">
@@ -7687,7 +7687,7 @@
         <v>1.5</v>
       </c>
       <c r="C692" s="0">
-        <v>17.252511329413547</v>
+        <v>17.257438398326421</v>
       </c>
     </row>
     <row r="693">
@@ -7698,7 +7698,7 @@
         <v>1.5</v>
       </c>
       <c r="C693" s="0">
-        <v>17.242372633343685</v>
+        <v>17.244740088577718</v>
       </c>
     </row>
     <row r="694">
@@ -7709,7 +7709,7 @@
         <v>1.5</v>
       </c>
       <c r="C694" s="0">
-        <v>17.236651923025985</v>
+        <v>17.243467055344428</v>
       </c>
     </row>
     <row r="695">
@@ -7720,7 +7720,7 @@
         <v>1.5</v>
       </c>
       <c r="C695" s="0">
-        <v>17.245809818919266</v>
+        <v>17.242685398511725</v>
       </c>
     </row>
     <row r="696">
@@ -7731,7 +7731,7 @@
         <v>1.5</v>
       </c>
       <c r="C696" s="0">
-        <v>17.251521423134747</v>
+        <v>17.247889427195386</v>
       </c>
     </row>
     <row r="697">
@@ -7742,7 +7742,7 @@
         <v>1.5</v>
       </c>
       <c r="C697" s="0">
-        <v>17.248803041540082</v>
+        <v>17.24543610335509</v>
       </c>
     </row>
     <row r="698">
@@ -7753,7 +7753,7 @@
         <v>1.5</v>
       </c>
       <c r="C698" s="0">
-        <v>17.237651525649113</v>
+        <v>17.239014673626716</v>
       </c>
     </row>
     <row r="699">
@@ -7764,7 +7764,7 @@
         <v>1.5</v>
       </c>
       <c r="C699" s="0">
-        <v>17.229174171522562</v>
+        <v>17.23060895064058</v>
       </c>
     </row>
     <row r="700">
@@ -7775,7 +7775,7 @@
         <v>1.5</v>
       </c>
       <c r="C700" s="0">
-        <v>17.222231200504666</v>
+        <v>17.224304740591467</v>
       </c>
     </row>
     <row r="701">
@@ -7786,7 +7786,7 @@
         <v>1.5</v>
       </c>
       <c r="C701" s="0">
-        <v>17.225144122996216</v>
+        <v>17.223915136615556</v>
       </c>
     </row>
     <row r="702">
@@ -7797,7 +7797,7 @@
         <v>1.5</v>
       </c>
       <c r="C702" s="0">
-        <v>17.228069228243509</v>
+        <v>17.229724435133157</v>
       </c>
     </row>
     <row r="703">
@@ -7808,7 +7808,7 @@
         <v>1.5</v>
       </c>
       <c r="C703" s="0">
-        <v>17.231918681432386</v>
+        <v>17.231194556413723</v>
       </c>
     </row>
     <row r="704">
@@ -7819,7 +7819,7 @@
         <v>1.5</v>
       </c>
       <c r="C704" s="0">
-        <v>17.232227266877672</v>
+        <v>17.226115024876783</v>
       </c>
     </row>
     <row r="705">
@@ -7830,7 +7830,7 @@
         <v>1.5</v>
       </c>
       <c r="C705" s="0">
-        <v>17.220505616186756</v>
+        <v>17.224194030575301</v>
       </c>
     </row>
     <row r="706">
@@ -7841,7 +7841,7 @@
         <v>1.5</v>
       </c>
       <c r="C706" s="0">
-        <v>17.21524366818759</v>
+        <v>17.213972555506722</v>
       </c>
     </row>
     <row r="707">
@@ -7852,7 +7852,7 @@
         <v>1.5</v>
       </c>
       <c r="C707" s="0">
-        <v>17.204222950478002</v>
+        <v>17.206696144548399</v>
       </c>
     </row>
     <row r="708">
@@ -7863,7 +7863,7 @@
         <v>1.5</v>
       </c>
       <c r="C708" s="0">
-        <v>17.202310751145291</v>
+        <v>17.203502623631756</v>
       </c>
     </row>
     <row r="709">
@@ -7874,7 +7874,7 @@
         <v>1.5</v>
       </c>
       <c r="C709" s="0">
-        <v>17.204200194069493</v>
+        <v>17.20003619308704</v>
       </c>
     </row>
     <row r="710">
@@ -7885,7 +7885,7 @@
         <v>1.5</v>
       </c>
       <c r="C710" s="0">
-        <v>17.195264866726625</v>
+        <v>17.196304906423137</v>
       </c>
     </row>
     <row r="711">
@@ -7896,7 +7896,7 @@
         <v>1.5</v>
       </c>
       <c r="C711" s="0">
-        <v>17.190237816075644</v>
+        <v>17.191386241456637</v>
       </c>
     </row>
     <row r="712">
@@ -7907,7 +7907,7 @@
         <v>1.5</v>
       </c>
       <c r="C712" s="0">
-        <v>17.186902247744982</v>
+        <v>17.186824431822497</v>
       </c>
     </row>
     <row r="713">
@@ -7918,7 +7918,7 @@
         <v>1.5</v>
       </c>
       <c r="C713" s="0">
-        <v>17.179059764377989</v>
+        <v>17.176439658256516</v>
       </c>
     </row>
     <row r="714">
@@ -7929,7 +7929,7 @@
         <v>1.5</v>
       </c>
       <c r="C714" s="0">
-        <v>17.168491469231999</v>
+        <v>17.166305794376367</v>
       </c>
     </row>
     <row r="715">
@@ -7940,7 +7940,7 @@
         <v>1.5</v>
       </c>
       <c r="C715" s="0">
-        <v>17.157911312200131</v>
+        <v>17.161606493860141</v>
       </c>
     </row>
     <row r="716">
@@ -7951,7 +7951,7 @@
         <v>1.5</v>
       </c>
       <c r="C716" s="0">
-        <v>17.153616478683134</v>
+        <v>17.158152258457484</v>
       </c>
     </row>
     <row r="717">
@@ -7962,7 +7962,7 @@
         <v>1.5</v>
       </c>
       <c r="C717" s="0">
-        <v>17.157966295564151</v>
+        <v>17.156371869280107</v>
       </c>
     </row>
     <row r="718">
@@ -7973,7 +7973,7 @@
         <v>1.5</v>
       </c>
       <c r="C718" s="0">
-        <v>17.16224557705965</v>
+        <v>17.157120099792536</v>
       </c>
     </row>
     <row r="719">
@@ -7984,7 +7984,7 @@
         <v>1.5</v>
       </c>
       <c r="C719" s="0">
-        <v>17.156046408030761</v>
+        <v>17.156339652205727</v>
       </c>
     </row>
     <row r="720">
@@ -7995,7 +7995,7 @@
         <v>1.5</v>
       </c>
       <c r="C720" s="0">
-        <v>17.147237166439592</v>
+        <v>17.148839412959614</v>
       </c>
     </row>
     <row r="721">
@@ -8006,7 +8006,7 @@
         <v>1.5</v>
       </c>
       <c r="C721" s="0">
-        <v>17.140848647211278</v>
+        <v>17.141704861874963</v>
       </c>
     </row>
     <row r="722">
@@ -8017,7 +8017,7 @@
         <v>1.5</v>
       </c>
       <c r="C722" s="0">
-        <v>17.135799480042913</v>
+        <v>17.13693047743314</v>
       </c>
     </row>
     <row r="723">
@@ -8028,7 +8028,7 @@
         <v>1.5</v>
       </c>
       <c r="C723" s="0">
-        <v>17.133465397564247</v>
+        <v>17.134120229405205</v>
       </c>
     </row>
     <row r="724">
@@ -8039,7 +8039,7 @@
         <v>1.5</v>
       </c>
       <c r="C724" s="0">
-        <v>17.132582271234241</v>
+        <v>17.131403363454002</v>
       </c>
     </row>
     <row r="725">
@@ -8050,7 +8050,7 @@
         <v>1.5</v>
       </c>
       <c r="C725" s="0">
-        <v>17.12961993742271</v>
+        <v>17.129696173038969</v>
       </c>
     </row>
     <row r="726">
@@ -8061,7 +8061,7 @@
         <v>1.5</v>
       </c>
       <c r="C726" s="0">
-        <v>17.126262685682974</v>
+        <v>17.126095550108037</v>
       </c>
     </row>
     <row r="727">
@@ -8072,7 +8072,7 @@
         <v>1.5</v>
       </c>
       <c r="C727" s="0">
-        <v>17.11953760009985</v>
+        <v>17.119854784323042</v>
       </c>
     </row>
     <row r="728">
@@ -8083,7 +8083,7 @@
         <v>1.5</v>
       </c>
       <c r="C728" s="0">
-        <v>17.115347984964913</v>
+        <v>17.113671530691736</v>
       </c>
     </row>
     <row r="729">
@@ -8094,7 +8094,7 @@
         <v>1.5</v>
       </c>
       <c r="C729" s="0">
-        <v>17.107253057817292</v>
+        <v>17.106348473918818</v>
       </c>
     </row>
     <row r="730">
@@ -8105,7 +8105,7 @@
         <v>1.5</v>
       </c>
       <c r="C730" s="0">
-        <v>17.098349464901283</v>
+        <v>17.102307916919987</v>
       </c>
     </row>
     <row r="731">
@@ -8116,7 +8116,7 @@
         <v>1.5</v>
       </c>
       <c r="C731" s="0">
-        <v>17.10035555366467</v>
+        <v>17.104737460417198</v>
       </c>
     </row>
     <row r="732">
@@ -8127,7 +8127,7 @@
         <v>1.5</v>
       </c>
       <c r="C732" s="0">
-        <v>17.106261285211406</v>
+        <v>17.102758639035077</v>
       </c>
     </row>
     <row r="733">
@@ -8138,7 +8138,7 @@
         <v>1.5</v>
       </c>
       <c r="C733" s="0">
-        <v>17.097385828490111</v>
+        <v>17.095920227719088</v>
       </c>
     </row>
     <row r="734">
@@ -8149,7 +8149,7 @@
         <v>1.5</v>
       </c>
       <c r="C734" s="0">
-        <v>17.089649012458914</v>
+        <v>17.083932703445218</v>
       </c>
     </row>
     <row r="735">
@@ -8160,7 +8160,7 @@
         <v>1.5</v>
       </c>
       <c r="C735" s="0">
-        <v>17.070884816772871</v>
+        <v>17.075727435217743</v>
       </c>
     </row>
     <row r="736">
@@ -8171,7 +8171,7 @@
         <v>1.5</v>
       </c>
       <c r="C736" s="0">
-        <v>17.060867566385802</v>
+        <v>17.067269090082451</v>
       </c>
     </row>
     <row r="737">
@@ -8182,7 +8182,7 @@
         <v>1.5</v>
       </c>
       <c r="C737" s="0">
-        <v>17.068969770017109</v>
+        <v>17.063368313623759</v>
       </c>
     </row>
     <row r="738">
@@ -8193,7 +8193,7 @@
         <v>1.5</v>
       </c>
       <c r="C738" s="0">
-        <v>17.069033710536338</v>
+        <v>17.069291029825493</v>
       </c>
     </row>
     <row r="739">
@@ -8204,7 +8204,7 @@
         <v>1.5</v>
       </c>
       <c r="C739" s="0">
-        <v>17.072048003612341</v>
+        <v>17.071484356762177</v>
       </c>
     </row>
     <row r="740">
@@ -8215,7 +8215,7 @@
         <v>1.5</v>
       </c>
       <c r="C740" s="0">
-        <v>17.071578180394212</v>
+        <v>17.070258660615334</v>
       </c>
     </row>
     <row r="741">
@@ -8226,7 +8226,7 @@
         <v>1.5</v>
       </c>
       <c r="C741" s="0">
-        <v>17.067437597873571</v>
+        <v>17.064291979316632</v>
       </c>
     </row>
     <row r="742">
@@ -8237,7 +8237,7 @@
         <v>1.5</v>
       </c>
       <c r="C742" s="0">
-        <v>17.056174596734571</v>
+        <v>17.061604912507825</v>
       </c>
     </row>
     <row r="743">
@@ -8248,7 +8248,7 @@
         <v>1.5</v>
       </c>
       <c r="C743" s="0">
-        <v>17.058799378605777</v>
+        <v>17.060275289989544</v>
       </c>
     </row>
     <row r="744">
@@ -8259,7 +8259,7 @@
         <v>1.5</v>
       </c>
       <c r="C744" s="0">
-        <v>17.059470022791274</v>
+        <v>17.059138932331038</v>
       </c>
     </row>
     <row r="745">
@@ -8270,7 +8270,7 @@
         <v>1.5</v>
       </c>
       <c r="C745" s="0">
-        <v>17.057944556696086</v>
+        <v>17.050496135572104</v>
       </c>
     </row>
     <row r="746">
@@ -8281,7 +8281,7 @@
         <v>1.5</v>
       </c>
       <c r="C746" s="0">
-        <v>17.047135394437685</v>
+        <v>17.046989668919963</v>
       </c>
     </row>
     <row r="747">
@@ -8292,7 +8292,7 @@
         <v>1.5</v>
       </c>
       <c r="C747" s="0">
-        <v>17.03522832664617</v>
+        <v>17.040825006374636</v>
       </c>
     </row>
     <row r="748">
@@ -8303,7 +8303,7 @@
         <v>1.5</v>
       </c>
       <c r="C748" s="0">
-        <v>17.027845487131575</v>
+        <v>17.031858160426253</v>
       </c>
     </row>
     <row r="749">
@@ -8314,7 +8314,7 @@
         <v>1.5</v>
       </c>
       <c r="C749" s="0">
-        <v>17.031438711067562</v>
+        <v>17.025574047562444</v>
       </c>
     </row>
     <row r="750">
@@ -8325,7 +8325,7 @@
         <v>1.5</v>
       </c>
       <c r="C750" s="0">
-        <v>17.027786457373942</v>
+        <v>17.024424175395513</v>
       </c>
     </row>
     <row r="751">
@@ -8336,7 +8336,7 @@
         <v>1.5</v>
       </c>
       <c r="C751" s="0">
-        <v>17.016965348720717</v>
+        <v>17.021853829644961</v>
       </c>
     </row>
     <row r="752">
@@ -8347,7 +8347,7 @@
         <v>1.5</v>
       </c>
       <c r="C752" s="0">
-        <v>17.015093837800993</v>
+        <v>17.020236529040353</v>
       </c>
     </row>
     <row r="753">
@@ -8358,7 +8358,7 @@
         <v>1.5</v>
       </c>
       <c r="C753" s="0">
-        <v>17.023759662969905</v>
+        <v>17.022384211882834</v>
       </c>
     </row>
     <row r="754">
@@ -8369,7 +8369,7 @@
         <v>1.5</v>
       </c>
       <c r="C754" s="0">
-        <v>17.027477498504791</v>
+        <v>17.022743654446405</v>
       </c>
     </row>
     <row r="755">
@@ -8380,7 +8380,7 @@
         <v>1.5</v>
       </c>
       <c r="C755" s="0">
-        <v>17.023879675433918</v>
+        <v>17.017755142394339</v>
       </c>
     </row>
     <row r="756">
@@ -8391,7 +8391,7 @@
         <v>1.5</v>
       </c>
       <c r="C756" s="0">
-        <v>17.007470773441923</v>
+        <v>17.014425449642072</v>
       </c>
     </row>
     <row r="757">
@@ -8402,7 +8402,7 @@
         <v>1.5</v>
       </c>
       <c r="C757" s="0">
-        <v>17.004444626402755</v>
+        <v>17.007442385774958</v>
       </c>
     </row>
     <row r="758">
@@ -8413,7 +8413,7 @@
         <v>1.5</v>
       </c>
       <c r="C758" s="0">
-        <v>17.00508810175679</v>
+        <v>17.004723412500269</v>
       </c>
     </row>
     <row r="759">
@@ -8424,7 +8424,7 @@
         <v>1.5</v>
       </c>
       <c r="C759" s="0">
-        <v>17.00836154070042</v>
+        <v>17.00422991806003</v>
       </c>
     </row>
     <row r="760">
@@ -8435,7 +8435,7 @@
         <v>1.5</v>
       </c>
       <c r="C760" s="0">
-        <v>17.005770787145572</v>
+        <v>17.008699992546209</v>
       </c>
     </row>
     <row r="761">
@@ -8446,7 +8446,7 @@
         <v>1.5</v>
       </c>
       <c r="C761" s="0">
-        <v>17.008092939603024</v>
+        <v>17.009513686517877</v>
       </c>
     </row>
     <row r="762">
@@ -8457,7 +8457,7 @@
         <v>1.5</v>
       </c>
       <c r="C762" s="0">
-        <v>17.007622527727321</v>
+        <v>17.005449053202224</v>
       </c>
     </row>
     <row r="763">
@@ -8468,7 +8468,7 @@
         <v>1.5</v>
       </c>
       <c r="C763" s="0">
-        <v>17.003071598851282</v>
+        <v>16.997856153460333</v>
       </c>
     </row>
     <row r="764">
@@ -8479,7 +8479,7 @@
         <v>1.5</v>
       </c>
       <c r="C764" s="0">
-        <v>16.989369868871446</v>
+        <v>16.995757085485586</v>
       </c>
     </row>
     <row r="765">
@@ -8490,7 +8490,7 @@
         <v>1.5</v>
       </c>
       <c r="C765" s="0">
-        <v>16.985726752706807</v>
+        <v>16.984352094247953</v>
       </c>
     </row>
     <row r="766">
@@ -8501,7 +8501,7 @@
         <v>1.5</v>
       </c>
       <c r="C766" s="0">
-        <v>16.975090887382677</v>
+        <v>16.974422828359085</v>
       </c>
     </row>
     <row r="767">
@@ -8512,7 +8512,7 @@
         <v>1.5</v>
       </c>
       <c r="C767" s="0">
-        <v>16.96948973529345</v>
+        <v>16.968117756219456</v>
       </c>
     </row>
     <row r="768">
@@ -8523,7 +8523,7 @@
         <v>1.5</v>
       </c>
       <c r="C768" s="0">
-        <v>16.965333512545108</v>
+        <v>16.968469714509805</v>
       </c>
     </row>
     <row r="769">
@@ -8534,7 +8534,7 @@
         <v>1.5</v>
       </c>
       <c r="C769" s="0">
-        <v>16.964512409965966</v>
+        <v>16.967395316928229</v>
       </c>
     </row>
     <row r="770">
@@ -8545,7 +8545,7 @@
         <v>1.5</v>
       </c>
       <c r="C770" s="0">
-        <v>16.970182402244223</v>
+        <v>16.966033700775348</v>
       </c>
     </row>
     <row r="771">
@@ -8556,7 +8556,7 @@
         <v>1.5</v>
       </c>
       <c r="C771" s="0">
-        <v>16.969322410764306</v>
+        <v>16.968861516496656</v>
       </c>
     </row>
     <row r="772">
@@ -8567,7 +8567,7 @@
         <v>1.5</v>
       </c>
       <c r="C772" s="0">
-        <v>16.966116932324482</v>
+        <v>16.964887245141924</v>
       </c>
     </row>
     <row r="773">
@@ -8578,7 +8578,7 @@
         <v>1.5</v>
       </c>
       <c r="C773" s="0">
-        <v>16.958991279390592</v>
+        <v>16.960022503777374</v>
       </c>
     </row>
     <row r="774">
@@ -8589,7 +8589,7 @@
         <v>1.5</v>
       </c>
       <c r="C774" s="0">
-        <v>16.95433006212437</v>
+        <v>16.95664199382799</v>
       </c>
     </row>
     <row r="775">
@@ -8600,7 +8600,7 @@
         <v>1.5</v>
       </c>
       <c r="C775" s="0">
-        <v>16.954673063834861</v>
+        <v>16.957021688481259</v>
       </c>
     </row>
     <row r="776">
@@ -8611,7 +8611,7 @@
         <v>1.5</v>
       </c>
       <c r="C776" s="0">
-        <v>16.960401748363179</v>
+        <v>16.963125092937645</v>
       </c>
     </row>
     <row r="777">
@@ -8622,7 +8622,7 @@
         <v>1.5</v>
       </c>
       <c r="C777" s="0">
-        <v>16.96838901085906</v>
+        <v>16.962416337933888</v>
       </c>
     </row>
     <row r="778">
@@ -8633,7 +8633,7 @@
         <v>1.5</v>
       </c>
       <c r="C778" s="0">
-        <v>16.959576427995732</v>
+        <v>16.958889883977005</v>
       </c>
     </row>
     <row r="779">
@@ -8644,7 +8644,7 @@
         <v>1.5</v>
       </c>
       <c r="C779" s="0">
-        <v>16.952204490134207</v>
+        <v>16.950886948154139</v>
       </c>
     </row>
     <row r="780">
@@ -8655,7 +8655,7 @@
         <v>1.5</v>
       </c>
       <c r="C780" s="0">
-        <v>16.940496800584022</v>
+        <v>16.945154811376209</v>
       </c>
     </row>
     <row r="781">
@@ -8666,7 +8666,7 @@
         <v>1.5</v>
       </c>
       <c r="C781" s="0">
-        <v>16.933510044956908</v>
+        <v>16.938990370351359</v>
       </c>
     </row>
     <row r="782">
@@ -8677,7 +8677,7 @@
         <v>1.5</v>
       </c>
       <c r="C782" s="0">
-        <v>16.939240713596647</v>
+        <v>16.930992820754891</v>
       </c>
     </row>
     <row r="783">
@@ -8688,7 +8688,7 @@
         <v>1.5</v>
       </c>
       <c r="C783" s="0">
-        <v>16.932466878504172</v>
+        <v>16.933424469176448</v>
       </c>
     </row>
     <row r="784">
@@ -8699,7 +8699,7 @@
         <v>1.5</v>
       </c>
       <c r="C784" s="0">
-        <v>16.928127762303401</v>
+        <v>16.931554081027841</v>
       </c>
     </row>
     <row r="785">
@@ -8710,7 +8710,7 @@
         <v>1.5</v>
       </c>
       <c r="C785" s="0">
-        <v>16.926419414903947</v>
+        <v>16.922963516957871</v>
       </c>
     </row>
     <row r="786">
@@ -8721,7 +8721,7 @@
         <v>1.5</v>
       </c>
       <c r="C786" s="0">
-        <v>16.916736893594557</v>
+        <v>16.914257156297765</v>
       </c>
     </row>
     <row r="787">
@@ -8732,7 +8732,7 @@
         <v>1.5</v>
       </c>
       <c r="C787" s="0">
-        <v>16.910374773374102</v>
+        <v>16.91074810273431</v>
       </c>
     </row>
     <row r="788">
@@ -8743,7 +8743,7 @@
         <v>1.5</v>
       </c>
       <c r="C788" s="0">
-        <v>16.90332930569015</v>
+        <v>16.909111835098681</v>
       </c>
     </row>
     <row r="789">
@@ -8754,7 +8754,7 @@
         <v>1.5</v>
       </c>
       <c r="C789" s="0">
-        <v>16.9036822593845</v>
+        <v>16.902637860553391</v>
       </c>
     </row>
     <row r="790">
@@ -8765,7 +8765,7 @@
         <v>1.5</v>
       </c>
       <c r="C790" s="0">
-        <v>16.906074869584888</v>
+        <v>16.899660080987672</v>
       </c>
     </row>
     <row r="791">
@@ -8776,7 +8776,7 @@
         <v>1.5</v>
       </c>
       <c r="C791" s="0">
-        <v>16.898734444050156</v>
+        <v>16.90141459721319</v>
       </c>
     </row>
     <row r="792">
@@ -8787,7 +8787,7 @@
         <v>1.5</v>
       </c>
       <c r="C792" s="0">
-        <v>16.893385708540233</v>
+        <v>16.898314490201845</v>
       </c>
     </row>
     <row r="793">
@@ -8798,7 +8798,7 @@
         <v>1.5</v>
       </c>
       <c r="C793" s="0">
-        <v>16.892790875738932</v>
+        <v>16.889294712375499</v>
       </c>
     </row>
     <row r="794">
@@ -8809,7 +8809,7 @@
         <v>1.5</v>
       </c>
       <c r="C794" s="0">
-        <v>16.886418271656463</v>
+        <v>16.885744251596829</v>
       </c>
     </row>
     <row r="795">
@@ -8820,7 +8820,7 @@
         <v>1.5</v>
       </c>
       <c r="C795" s="0">
-        <v>16.881003909409909</v>
+        <v>16.882193915253495</v>
       </c>
     </row>
     <row r="796">
@@ -8831,7 +8831,7 @@
         <v>1.5</v>
       </c>
       <c r="C796" s="0">
-        <v>16.874875218987093</v>
+        <v>16.877972486305961</v>
       </c>
     </row>
     <row r="797">
@@ -8842,7 +8842,7 @@
         <v>1.5</v>
       </c>
       <c r="C797" s="0">
-        <v>16.874215517124586</v>
+        <v>16.87371212877342</v>
       </c>
     </row>
     <row r="798">
@@ -8853,7 +8853,7 @@
         <v>1.5</v>
       </c>
       <c r="C798" s="0">
-        <v>16.874370383715739</v>
+        <v>16.870328823907379</v>
       </c>
     </row>
     <row r="799">
@@ -8864,7 +8864,7 @@
         <v>1.5</v>
       </c>
       <c r="C799" s="0">
-        <v>16.866287697687863</v>
+        <v>16.865732856455576</v>
       </c>
     </row>
     <row r="800">
@@ -8875,7 +8875,7 @@
         <v>1.5</v>
       </c>
       <c r="C800" s="0">
-        <v>16.857182498927731</v>
+        <v>16.859448152523949</v>
       </c>
     </row>
     <row r="801">
@@ -8886,7 +8886,7 @@
         <v>1.5</v>
       </c>
       <c r="C801" s="0">
-        <v>16.854425653617881</v>
+        <v>16.855852406722178</v>
       </c>
     </row>
     <row r="802">
@@ -8897,7 +8897,7 @@
         <v>1.5</v>
       </c>
       <c r="C802" s="0">
-        <v>16.856201954390688</v>
+        <v>16.861065134283031</v>
       </c>
     </row>
   </sheetData>
